--- a/Eindafrekening/Eindafrekening Inputs/input_master_2025-12-29.xlsx
+++ b/Eindafrekening/Eindafrekening Inputs/input_master_2025-12-29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ryanrent.sharepoint.com/sites/RyanRent/Gedeelde documenten/General/01_RyanRent&amp;Co/Aljereau/Eindafrekening Generator/Eindafrekening/Eindafrekening Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_AD21B94DCC1D05312014D9037EFCCD609645B8E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4612D158-23E2-E046-9FAE-B6A0CDCD9CCA}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_AD21B94DCC1D05312014D9037EFCCD609645B8E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42A8C963-7A8A-5849-9772-6558F9BED743}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="1337">
   <si>
     <t>COMPLETENESS DASHBOARD</t>
   </si>
@@ -5513,9 +5513,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN11" sqref="AN11"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6779,34 +6781,48 @@
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C15" t="s">
+        <v>555</v>
+      </c>
       <c r="D15" s="8" t="str">
         <f>IF(A15="","",VLOOKUP(A15,Lists!$A:$B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E15" s="8" t="str">
+        <v>0089</v>
+      </c>
+      <c r="E15" s="8">
         <f>IF(C15="","",VLOOKUP(C15,Lists!$C:$D,2,FALSE))</f>
-        <v/>
+        <v>50448</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="J15" s="9" t="str">
-        <f>IF(A15="","",IFERROR(VLOOKUP(A15,Lists!$A:$H,8,FALSE),0))</f>
-        <v/>
-      </c>
-      <c r="L15" s="9" t="str">
+      <c r="H15" s="15">
+        <v>45915</v>
+      </c>
+      <c r="I15" s="15">
+        <v>46011</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1650</v>
+      </c>
+      <c r="L15" s="9">
         <f>IF(A15="","",IFERROR(VLOOKUP(A15,Lists!$A:$H,7,FALSE),0))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M15" s="10">
         <v>0.21</v>
       </c>
-      <c r="N15" s="11" t="e">
+      <c r="N15" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="O15" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>459.8</v>
       </c>
       <c r="R15" s="12" t="str">
         <f>IF(Q15="","",VLOOKUP(Q15,Lists!$E:$F,2,FALSE))</f>
@@ -6849,9 +6865,15 @@
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1327</v>
+      </c>
       <c r="D16" s="8" t="str">
         <f>IF(A16="","",VLOOKUP(A16,Lists!$A:$B,2,FALSE))</f>
-        <v/>
+        <v>0089</v>
       </c>
       <c r="E16" s="8" t="str">
         <f>IF(C16="","",VLOOKUP(C16,Lists!$C:$D,2,FALSE))</f>
@@ -6859,20 +6881,20 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="J16" s="9" t="str">
+      <c r="J16" s="9">
         <f>IF(A16="","",IFERROR(VLOOKUP(A16,Lists!$A:$H,8,FALSE),0))</f>
-        <v/>
-      </c>
-      <c r="L16" s="9" t="str">
+        <v>1650</v>
+      </c>
+      <c r="L16" s="9">
         <f>IF(A16="","",IFERROR(VLOOKUP(A16,Lists!$A:$H,7,FALSE),0))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M16" s="10">
         <v>0.21</v>
       </c>
-      <c r="N16" s="11" t="e">
+      <c r="N16" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="O16" s="11">
         <f t="shared" si="1"/>
@@ -6918,10 +6940,16 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1327</v>
+      </c>
       <c r="D17" s="8" t="str">
         <f>IF(A17="","",VLOOKUP(A17,Lists!$A:$B,2,FALSE))</f>
-        <v/>
+        <v>0089</v>
       </c>
       <c r="E17" s="8" t="str">
         <f>IF(C17="","",VLOOKUP(C17,Lists!$C:$D,2,FALSE))</f>
@@ -6929,20 +6957,20 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="J17" s="9" t="str">
+      <c r="J17" s="9">
         <f>IF(A17="","",IFERROR(VLOOKUP(A17,Lists!$A:$H,8,FALSE),0))</f>
-        <v/>
-      </c>
-      <c r="L17" s="9" t="str">
+        <v>1650</v>
+      </c>
+      <c r="L17" s="9">
         <f>IF(A17="","",IFERROR(VLOOKUP(A17,Lists!$A:$H,7,FALSE),0))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M17" s="10">
         <v>0.21</v>
       </c>
-      <c r="N17" s="11" t="e">
+      <c r="N17" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="1"/>
@@ -6988,10 +7016,16 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1336</v>
+      </c>
       <c r="D18" s="8" t="str">
         <f>IF(A18="","",VLOOKUP(A18,Lists!$A:$B,2,FALSE))</f>
-        <v/>
+        <v>0089</v>
       </c>
       <c r="E18" s="8" t="str">
         <f>IF(C18="","",VLOOKUP(C18,Lists!$C:$D,2,FALSE))</f>
@@ -6999,20 +7033,20 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="J18" s="9" t="str">
+      <c r="J18" s="9">
         <f>IF(A18="","",IFERROR(VLOOKUP(A18,Lists!$A:$H,8,FALSE),0))</f>
-        <v/>
-      </c>
-      <c r="L18" s="9" t="str">
+        <v>1650</v>
+      </c>
+      <c r="L18" s="9">
         <f>IF(A18="","",IFERROR(VLOOKUP(A18,Lists!$A:$H,7,FALSE),0))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M18" s="10">
         <v>0.21</v>
       </c>
-      <c r="N18" s="11" t="e">
+      <c r="N18" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="1"/>
@@ -7058,10 +7092,16 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1335</v>
+      </c>
       <c r="D19" s="8" t="str">
         <f>IF(A19="","",VLOOKUP(A19,Lists!$A:$B,2,FALSE))</f>
-        <v/>
+        <v>0089</v>
       </c>
       <c r="E19" s="8" t="str">
         <f>IF(C19="","",VLOOKUP(C19,Lists!$C:$D,2,FALSE))</f>
@@ -7069,20 +7109,20 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="J19" s="9" t="str">
+      <c r="J19" s="9">
         <f>IF(A19="","",IFERROR(VLOOKUP(A19,Lists!$A:$H,8,FALSE),0))</f>
-        <v/>
-      </c>
-      <c r="L19" s="9" t="str">
+        <v>1650</v>
+      </c>
+      <c r="L19" s="9">
         <f>IF(A19="","",IFERROR(VLOOKUP(A19,Lists!$A:$H,7,FALSE),0))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M19" s="10">
         <v>0.21</v>
       </c>
-      <c r="N19" s="11" t="e">
+      <c r="N19" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="1"/>
@@ -7128,10 +7168,13 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1226</v>
+      </c>
       <c r="D20" s="8" t="str">
         <f>IF(A20="","",VLOOKUP(A20,Lists!$A:$B,2,FALSE))</f>
-        <v/>
+        <v>0089</v>
       </c>
       <c r="E20" s="8" t="str">
         <f>IF(C20="","",VLOOKUP(C20,Lists!$C:$D,2,FALSE))</f>
@@ -7139,20 +7182,20 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="J20" s="9" t="str">
+      <c r="J20" s="9">
         <f>IF(A20="","",IFERROR(VLOOKUP(A20,Lists!$A:$H,8,FALSE),0))</f>
-        <v/>
-      </c>
-      <c r="L20" s="9" t="str">
+        <v>1650</v>
+      </c>
+      <c r="L20" s="9">
         <f>IF(A20="","",IFERROR(VLOOKUP(A20,Lists!$A:$H,7,FALSE),0))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M20" s="10">
         <v>0.21</v>
       </c>
-      <c r="N20" s="11" t="e">
+      <c r="N20" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="1"/>
@@ -7198,10 +7241,13 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1226</v>
+      </c>
       <c r="D21" s="8" t="str">
         <f>IF(A21="","",VLOOKUP(A21,Lists!$A:$B,2,FALSE))</f>
-        <v/>
+        <v>0089</v>
       </c>
       <c r="E21" s="8" t="str">
         <f>IF(C21="","",VLOOKUP(C21,Lists!$C:$D,2,FALSE))</f>
@@ -7209,20 +7255,20 @@
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="J21" s="9" t="str">
+      <c r="J21" s="9">
         <f>IF(A21="","",IFERROR(VLOOKUP(A21,Lists!$A:$H,8,FALSE),0))</f>
-        <v/>
-      </c>
-      <c r="L21" s="9" t="str">
+        <v>1650</v>
+      </c>
+      <c r="L21" s="9">
         <f>IF(A21="","",IFERROR(VLOOKUP(A21,Lists!$A:$H,7,FALSE),0))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M21" s="10">
         <v>0.21</v>
       </c>
-      <c r="N21" s="11" t="e">
+      <c r="N21" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="1"/>
@@ -7268,10 +7314,13 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1226</v>
+      </c>
       <c r="D22" s="8" t="str">
         <f>IF(A22="","",VLOOKUP(A22,Lists!$A:$B,2,FALSE))</f>
-        <v/>
+        <v>0089</v>
       </c>
       <c r="E22" s="8" t="str">
         <f>IF(C22="","",VLOOKUP(C22,Lists!$C:$D,2,FALSE))</f>
@@ -7279,20 +7328,20 @@
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="J22" s="9" t="str">
+      <c r="J22" s="9">
         <f>IF(A22="","",IFERROR(VLOOKUP(A22,Lists!$A:$H,8,FALSE),0))</f>
-        <v/>
-      </c>
-      <c r="L22" s="9" t="str">
+        <v>1650</v>
+      </c>
+      <c r="L22" s="9">
         <f>IF(A22="","",IFERROR(VLOOKUP(A22,Lists!$A:$H,7,FALSE),0))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M22" s="10">
         <v>0.21</v>
       </c>
-      <c r="N22" s="11" t="e">
+      <c r="N22" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="1"/>
@@ -7338,10 +7387,13 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1226</v>
+      </c>
       <c r="D23" s="8" t="str">
         <f>IF(A23="","",VLOOKUP(A23,Lists!$A:$B,2,FALSE))</f>
-        <v/>
+        <v>0089</v>
       </c>
       <c r="E23" s="8" t="str">
         <f>IF(C23="","",VLOOKUP(C23,Lists!$C:$D,2,FALSE))</f>
@@ -7349,20 +7401,20 @@
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="J23" s="9" t="str">
+      <c r="J23" s="9">
         <f>IF(A23="","",IFERROR(VLOOKUP(A23,Lists!$A:$H,8,FALSE),0))</f>
-        <v/>
-      </c>
-      <c r="L23" s="9" t="str">
+        <v>1650</v>
+      </c>
+      <c r="L23" s="9">
         <f>IF(A23="","",IFERROR(VLOOKUP(A23,Lists!$A:$H,7,FALSE),0))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M23" s="10">
         <v>0.21</v>
       </c>
-      <c r="N23" s="11" t="e">
+      <c r="N23" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="1"/>
@@ -7408,10 +7460,13 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1226</v>
+      </c>
       <c r="D24" s="8" t="str">
         <f>IF(A24="","",VLOOKUP(A24,Lists!$A:$B,2,FALSE))</f>
-        <v/>
+        <v>0089</v>
       </c>
       <c r="E24" s="8" t="str">
         <f>IF(C24="","",VLOOKUP(C24,Lists!$C:$D,2,FALSE))</f>
@@ -7419,20 +7474,20 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="J24" s="9" t="str">
+      <c r="J24" s="9">
         <f>IF(A24="","",IFERROR(VLOOKUP(A24,Lists!$A:$H,8,FALSE),0))</f>
-        <v/>
-      </c>
-      <c r="L24" s="9" t="str">
+        <v>1650</v>
+      </c>
+      <c r="L24" s="9">
         <f>IF(A24="","",IFERROR(VLOOKUP(A24,Lists!$A:$H,7,FALSE),0))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M24" s="10">
         <v>0.21</v>
       </c>
-      <c r="N24" s="11" t="e">
+      <c r="N24" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="O24" s="11">
         <f t="shared" si="1"/>
@@ -7478,10 +7533,13 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1226</v>
+      </c>
       <c r="D25" s="8" t="str">
         <f>IF(A25="","",VLOOKUP(A25,Lists!$A:$B,2,FALSE))</f>
-        <v/>
+        <v>0089</v>
       </c>
       <c r="E25" s="8" t="str">
         <f>IF(C25="","",VLOOKUP(C25,Lists!$C:$D,2,FALSE))</f>
@@ -7489,20 +7547,20 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="J25" s="9" t="str">
+      <c r="J25" s="9">
         <f>IF(A25="","",IFERROR(VLOOKUP(A25,Lists!$A:$H,8,FALSE),0))</f>
-        <v/>
-      </c>
-      <c r="L25" s="9" t="str">
+        <v>1650</v>
+      </c>
+      <c r="L25" s="9">
         <f>IF(A25="","",IFERROR(VLOOKUP(A25,Lists!$A:$H,7,FALSE),0))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M25" s="10">
         <v>0.21</v>
       </c>
-      <c r="N25" s="11" t="e">
+      <c r="N25" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="O25" s="11">
         <f t="shared" si="1"/>
@@ -7548,10 +7606,13 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1226</v>
+      </c>
       <c r="D26" s="8" t="str">
         <f>IF(A26="","",VLOOKUP(A26,Lists!$A:$B,2,FALSE))</f>
-        <v/>
+        <v>0089</v>
       </c>
       <c r="E26" s="8" t="str">
         <f>IF(C26="","",VLOOKUP(C26,Lists!$C:$D,2,FALSE))</f>
@@ -7559,20 +7620,20 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="J26" s="9" t="str">
+      <c r="J26" s="9">
         <f>IF(A26="","",IFERROR(VLOOKUP(A26,Lists!$A:$H,8,FALSE),0))</f>
-        <v/>
-      </c>
-      <c r="L26" s="9" t="str">
+        <v>1650</v>
+      </c>
+      <c r="L26" s="9">
         <f>IF(A26="","",IFERROR(VLOOKUP(A26,Lists!$A:$H,7,FALSE),0))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M26" s="10">
         <v>0.21</v>
       </c>
-      <c r="N26" s="11" t="e">
+      <c r="N26" s="11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="O26" s="11">
         <f t="shared" si="1"/>
@@ -7618,7 +7679,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="str">
         <f>IF(A27="","",VLOOKUP(A27,Lists!$A:$B,2,FALSE))</f>
         <v/>
@@ -7688,7 +7749,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D28" s="8" t="str">
         <f>IF(A28="","",VLOOKUP(A28,Lists!$A:$B,2,FALSE))</f>
         <v/>
@@ -7758,7 +7819,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="str">
         <f>IF(A29="","",VLOOKUP(A29,Lists!$A:$B,2,FALSE))</f>
         <v/>
@@ -7828,7 +7889,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D30" s="8" t="str">
         <f>IF(A30="","",VLOOKUP(A30,Lists!$A:$B,2,FALSE))</f>
         <v/>
@@ -7898,7 +7959,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D31" s="8" t="str">
         <f>IF(A31="","",VLOOKUP(A31,Lists!$A:$B,2,FALSE))</f>
         <v/>
@@ -7968,7 +8029,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D32" s="8" t="str">
         <f>IF(A32="","",VLOOKUP(A32,Lists!$A:$B,2,FALSE))</f>
         <v/>
@@ -19816,8 +19877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O393"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="H356" sqref="H356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27729,7 +27790,7 @@
         <v>120</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">

--- a/Eindafrekening/Eindafrekening Inputs/input_master_2025-12-29.xlsx
+++ b/Eindafrekening/Eindafrekening Inputs/input_master_2025-12-29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ryanrent.sharepoint.com/sites/RyanRent/Gedeelde documenten/General/01_RyanRent&amp;Co/Aljereau/Eindafrekening Generator/Eindafrekening/Eindafrekening Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="11_AD21B94DCC1D05312014D9037EFCCD609645B8E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB450F0F-772C-7846-A751-02FEC762FC80}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="11_AD21B94DCC1D05312014D9037EFCCD609645B8E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925976E5-308A-174F-9657-D903345F6B42}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5856,10 +5856,10 @@
   <dimension ref="A1:AQ196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI4" sqref="AI4"/>
+      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6668,7 +6668,7 @@
         <v>750.2</v>
       </c>
       <c r="AL9" t="str">
-        <f>IF($B9="GWE_Item",IF($AI9="Elektra",SUMIFS($W:$W,$A:$A,$A9,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A9,$B:$B,"GWE"),IF($AI9="Gas",SUMIFS($Y:$Y,$A:$A,$A9,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A9,$B:$B,"GWE"),IF($AI9="Water",SUMIFS($AA:$AA,$A:$A,$A9,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A9,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" ref="AL9:AL17" si="8">IF($B9="GWE_Item",IF($AI9="Elektra",SUMIFS($W:$W,$A:$A,$A9,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A9,$B:$B,"GWE"),IF($AI9="Gas",SUMIFS($Y:$Y,$A:$A,$A9,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A9,$B:$B,"GWE"),IF($AI9="Water",SUMIFS($AA:$AA,$A:$A,$A9,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A9,$B:$B,"GWE"),""))),"")</f>
         <v/>
       </c>
       <c r="AN9" s="11" t="str">
@@ -6765,7 +6765,7 @@
         <v/>
       </c>
       <c r="AL10" t="str">
-        <f>IF($B10="GWE_Item",IF($AI10="Elektra",SUMIFS($W:$W,$A:$A,$A10,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A10,$B:$B,"GWE"),IF($AI10="Gas",SUMIFS($Y:$Y,$A:$A,$A10,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A10,$B:$B,"GWE"),IF($AI10="Water",SUMIFS($AA:$AA,$A:$A,$A10,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A10,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN10" s="11" t="str">
@@ -6847,7 +6847,7 @@
         <v>58</v>
       </c>
       <c r="AL11">
-        <f>IF($B11="GWE_Item",IF($AI11="Elektra",SUMIFS($W:$W,$A:$A,$A11,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A11,$B:$B,"GWE"),IF($AI11="Gas",SUMIFS($Y:$Y,$A:$A,$A11,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A11,$B:$B,"GWE"),IF($AI11="Water",SUMIFS($AA:$AA,$A:$A,$A11,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A11,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="AN11" s="11">
@@ -6941,7 +6941,7 @@
         <v/>
       </c>
       <c r="AL12" t="str">
-        <f>IF($B12="GWE_Item",IF($AI12="Elektra",SUMIFS($W:$W,$A:$A,$A12,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A12,$B:$B,"GWE"),IF($AI12="Gas",SUMIFS($Y:$Y,$A:$A,$A12,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A12,$B:$B,"GWE"),IF($AI12="Water",SUMIFS($AA:$AA,$A:$A,$A12,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A12,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN12" s="11" t="str">
@@ -7023,7 +7023,7 @@
         <v>66</v>
       </c>
       <c r="AL13">
-        <f>IF($B13="GWE_Item",IF($AI13="Elektra",SUMIFS($W:$W,$A:$A,$A13,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A13,$B:$B,"GWE"),IF($AI13="Gas",SUMIFS($Y:$Y,$A:$A,$A13,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A13,$B:$B,"GWE"),IF($AI13="Water",SUMIFS($AA:$AA,$A:$A,$A13,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A13,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AN13" s="11" t="str">
@@ -7105,7 +7105,7 @@
         <v>73</v>
       </c>
       <c r="AL14">
-        <f>IF($B14="GWE_Item",IF($AI14="Elektra",SUMIFS($W:$W,$A:$A,$A14,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A14,$B:$B,"GWE"),IF($AI14="Gas",SUMIFS($Y:$Y,$A:$A,$A14,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A14,$B:$B,"GWE"),IF($AI14="Water",SUMIFS($AA:$AA,$A:$A,$A14,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A14,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="AN14" s="11" t="str">
@@ -7198,7 +7198,7 @@
         <v/>
       </c>
       <c r="AL15" t="str">
-        <f>IF($B15="GWE_Item",IF($AI15="Elektra",SUMIFS($W:$W,$A:$A,$A15,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A15,$B:$B,"GWE"),IF($AI15="Gas",SUMIFS($Y:$Y,$A:$A,$A15,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A15,$B:$B,"GWE"),IF($AI15="Water",SUMIFS($AA:$AA,$A:$A,$A15,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A15,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN15" s="11" t="str">
@@ -7258,6 +7258,18 @@
         <f>IF(Q16="","",VLOOKUP(Q16,Lists!$E:$F,2,FALSE))</f>
         <v/>
       </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>208</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>265</v>
+      </c>
       <c r="Z16">
         <v>487</v>
       </c>
@@ -7283,7 +7295,7 @@
         <v/>
       </c>
       <c r="AL16" t="str">
-        <f>IF($B16="GWE_Item",IF($AI16="Elektra",SUMIFS($W:$W,$A:$A,$A16,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A16,$B:$B,"GWE"),IF($AI16="Gas",SUMIFS($Y:$Y,$A:$A,$A16,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A16,$B:$B,"GWE"),IF($AI16="Water",SUMIFS($AA:$AA,$A:$A,$A16,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A16,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN16" s="11" t="str">
@@ -7371,7 +7383,7 @@
         <v>1338</v>
       </c>
       <c r="AL17">
-        <f>IF($B17="GWE_Item",IF($AI17="Elektra",SUMIFS($W:$W,$A:$A,$A17,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A17,$B:$B,"GWE"),IF($AI17="Gas",SUMIFS($Y:$Y,$A:$A,$A17,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A17,$B:$B,"GWE"),IF($AI17="Water",SUMIFS($AA:$AA,$A:$A,$A17,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A17,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AM17">
@@ -7703,11 +7715,11 @@
         <v>0.21</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" ref="N21:N27" si="8">L21 * (1 + M21)</f>
+        <f t="shared" ref="N21:N27" si="9">L21 * (1 + M21)</f>
         <v>145.19999999999999</v>
       </c>
       <c r="O21" s="11">
-        <f t="shared" ref="O21:O27" si="9">IF(K21="Eigen Beheer",0,IF(AND(ISNUMBER(N21),I21&lt;&gt;"",H21&lt;&gt;""),YEARFRAC(H21,I21,4)*12*N21,0))</f>
+        <f t="shared" ref="O21:O27" si="10">IF(K21="Eigen Beheer",0,IF(AND(ISNUMBER(N21),I21&lt;&gt;"",H21&lt;&gt;""),YEARFRAC(H21,I21,4)*12*N21,0))</f>
         <v>0</v>
       </c>
       <c r="R21" s="12" t="str">
@@ -7718,18 +7730,18 @@
         <v>51</v>
       </c>
       <c r="AE21" s="11" t="str">
-        <f t="shared" ref="AE21:AE27" si="10">IF(AB21="","",IF(ISNUMBER(SEARCH("Basis",AB21)),(250/1.21)+MAX(0,AC21-5)*AD21,IF(ISNUMBER(SEARCH("Intensief",AB21)),(375/1.21)+MAX(0,AC21-7)*AD21,AC21*AD21)))</f>
+        <f t="shared" ref="AE21:AE27" si="11">IF(AB21="","",IF(ISNUMBER(SEARCH("Basis",AB21)),(250/1.21)+MAX(0,AC21-5)*AD21,IF(ISNUMBER(SEARCH("Intensief",AB21)),(375/1.21)+MAX(0,AC21-7)*AD21,AC21*AD21)))</f>
         <v/>
       </c>
       <c r="AF21" s="13">
         <v>0.21</v>
       </c>
       <c r="AG21" s="11" t="str">
-        <f t="shared" ref="AG21:AG27" si="11">IF(AE21&lt;&gt;"",AE21*AF21,"")</f>
+        <f t="shared" ref="AG21:AG27" si="12">IF(AE21&lt;&gt;"",AE21*AF21,"")</f>
         <v/>
       </c>
       <c r="AH21" s="11" t="str">
-        <f t="shared" ref="AH21:AH27" si="12">IF(AE21&lt;&gt;"",AE21+AG21,"")</f>
+        <f t="shared" ref="AH21:AH27" si="13">IF(AE21&lt;&gt;"",AE21+AG21,"")</f>
         <v/>
       </c>
       <c r="AI21" t="s">
@@ -7795,11 +7807,11 @@
         <v>0.21</v>
       </c>
       <c r="N22" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>145.19999999999999</v>
       </c>
       <c r="O22" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R22" s="12" t="str">
@@ -7810,18 +7822,18 @@
         <v>52</v>
       </c>
       <c r="AE22" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF22" s="13">
         <v>0.21</v>
       </c>
       <c r="AG22" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH22" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI22" t="s">
@@ -7847,11 +7859,11 @@
         <v>0.21</v>
       </c>
       <c r="AP22" s="11">
-        <f t="shared" ref="AP22:AP27" si="13">IF(AND(AN22&lt;&gt;"",AO22&lt;&gt;""),AN22*AO22,"")</f>
+        <f t="shared" ref="AP22:AP27" si="14">IF(AND(AN22&lt;&gt;"",AO22&lt;&gt;""),AN22*AO22,"")</f>
         <v>6.5591610000000005</v>
       </c>
       <c r="AQ22" s="11">
-        <f t="shared" ref="AQ22:AQ27" si="14">IF(AND(AN22&lt;&gt;"",AP22&lt;&gt;""),AN22+AP22,"")</f>
+        <f t="shared" ref="AQ22:AQ27" si="15">IF(AND(AN22&lt;&gt;"",AP22&lt;&gt;""),AN22+AP22,"")</f>
         <v>37.793261000000001</v>
       </c>
     </row>
@@ -7887,11 +7899,11 @@
         <v>0.21</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>145.19999999999999</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R23" s="12" t="str">
@@ -7902,18 +7914,18 @@
         <v>53</v>
       </c>
       <c r="AE23" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF23" s="13">
         <v>0.21</v>
       </c>
       <c r="AG23" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH23" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI23" t="s">
@@ -7939,11 +7951,11 @@
         <v>0.21</v>
       </c>
       <c r="AP23" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-28.692369300000003</v>
       </c>
       <c r="AQ23" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-165.32269930000001</v>
       </c>
     </row>
@@ -7979,11 +7991,11 @@
         <v>0.21</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>145.19999999999999</v>
       </c>
       <c r="O24" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R24" s="12" t="str">
@@ -7994,18 +8006,18 @@
         <v>54</v>
       </c>
       <c r="AE24" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF24" s="13">
         <v>0.21</v>
       </c>
       <c r="AG24" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH24" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI24" t="s">
@@ -8031,11 +8043,11 @@
         <v>0.21</v>
       </c>
       <c r="AP24" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.147465099999998</v>
       </c>
       <c r="AQ24" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>116.08777509999999</v>
       </c>
     </row>
@@ -8071,11 +8083,11 @@
         <v>0.21</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>145.19999999999999</v>
       </c>
       <c r="O25" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R25" s="12" t="str">
@@ -8086,18 +8098,18 @@
         <v>55</v>
       </c>
       <c r="AE25" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF25" s="13">
         <v>0.21</v>
       </c>
       <c r="AG25" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH25" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI25" t="s">
@@ -8123,11 +8135,11 @@
         <v>0.21</v>
       </c>
       <c r="AP25" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.693219200000009</v>
       </c>
       <c r="AQ25" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>338.18473920000002</v>
       </c>
     </row>
@@ -8163,11 +8175,11 @@
         <v>0.21</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>145.19999999999999</v>
       </c>
       <c r="O26" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R26" s="12" t="str">
@@ -8178,18 +8190,18 @@
         <v>56</v>
       </c>
       <c r="AE26" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF26" s="13">
         <v>0.21</v>
       </c>
       <c r="AG26" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH26" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI26" t="s">
@@ -8215,11 +8227,11 @@
         <v>0.21</v>
       </c>
       <c r="AP26" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.9192710000000002</v>
       </c>
       <c r="AQ26" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28.344371000000002</v>
       </c>
     </row>
@@ -8255,11 +8267,11 @@
         <v>0.21</v>
       </c>
       <c r="N27" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>145.19999999999999</v>
       </c>
       <c r="O27" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R27" s="12" t="str">
@@ -8270,18 +8282,18 @@
         <v>57</v>
       </c>
       <c r="AE27" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF27" s="13">
         <v>0.21</v>
       </c>
       <c r="AG27" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH27" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AI27" t="s">
@@ -8307,11 +8319,11 @@
         <v>0.21</v>
       </c>
       <c r="AP27" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10.886475599999999</v>
       </c>
       <c r="AQ27" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>62.726835599999994</v>
       </c>
     </row>
@@ -8971,11 +8983,11 @@
         <v>0.21</v>
       </c>
       <c r="N35" s="11">
-        <f t="shared" ref="N35:N60" si="15">L35 * (1 + M35)</f>
+        <f t="shared" ref="N35:N60" si="16">L35 * (1 + M35)</f>
         <v>242</v>
       </c>
       <c r="O35" s="11">
-        <f t="shared" ref="O35:O60" si="16">IF(K35="Eigen Beheer",0,IF(AND(ISNUMBER(N35),I35&lt;&gt;"",H35&lt;&gt;""),YEARFRAC(H35,I35,4)*12*N35,0))</f>
+        <f t="shared" ref="O35:O60" si="17">IF(K35="Eigen Beheer",0,IF(AND(ISNUMBER(N35),I35&lt;&gt;"",H35&lt;&gt;""),YEARFRAC(H35,I35,4)*12*N35,0))</f>
         <v>0</v>
       </c>
       <c r="R35" s="12" t="str">
@@ -8986,18 +8998,18 @@
         <v>50</v>
       </c>
       <c r="AE35" s="11" t="str">
-        <f t="shared" ref="AE35:AE60" si="17">IF(AB35="","",IF(ISNUMBER(SEARCH("Basis",AB35)),(250/1.21)+MAX(0,AC35-5)*AD35,IF(ISNUMBER(SEARCH("Intensief",AB35)),(375/1.21)+MAX(0,AC35-7)*AD35,AC35*AD35)))</f>
+        <f t="shared" ref="AE35:AE60" si="18">IF(AB35="","",IF(ISNUMBER(SEARCH("Basis",AB35)),(250/1.21)+MAX(0,AC35-5)*AD35,IF(ISNUMBER(SEARCH("Intensief",AB35)),(375/1.21)+MAX(0,AC35-7)*AD35,AC35*AD35)))</f>
         <v/>
       </c>
       <c r="AF35" s="13">
         <v>0.21</v>
       </c>
       <c r="AG35" s="11" t="str">
-        <f t="shared" ref="AG35:AG60" si="18">IF(AE35&lt;&gt;"",AE35*AF35,"")</f>
+        <f t="shared" ref="AG35:AG60" si="19">IF(AE35&lt;&gt;"",AE35*AF35,"")</f>
         <v/>
       </c>
       <c r="AH35" s="11" t="str">
-        <f t="shared" ref="AH35:AH60" si="19">IF(AE35&lt;&gt;"",AE35+AG35,"")</f>
+        <f t="shared" ref="AH35:AH60" si="20">IF(AE35&lt;&gt;"",AE35+AG35,"")</f>
         <v/>
       </c>
       <c r="AI35" t="s">
@@ -9017,18 +9029,18 @@
         <v>9.2299999999999993E-2</v>
       </c>
       <c r="AN35" s="11">
-        <f t="shared" ref="AN35:AN60" si="20">IF(AND(AL35&lt;&gt;"",AM35&lt;&gt;""),AL35*AM35,"")</f>
+        <f t="shared" ref="AN35:AN60" si="21">IF(AND(AL35&lt;&gt;"",AM35&lt;&gt;""),AL35*AM35,"")</f>
         <v>5.3533999999999997</v>
       </c>
       <c r="AO35" s="13">
         <v>0.09</v>
       </c>
       <c r="AP35" s="11">
-        <f t="shared" ref="AP35:AP60" si="21">IF(AND(AN35&lt;&gt;"",AO35&lt;&gt;""),AN35*AO35,"")</f>
+        <f t="shared" ref="AP35:AP60" si="22">IF(AND(AN35&lt;&gt;"",AO35&lt;&gt;""),AN35*AO35,"")</f>
         <v>0.48180599999999996</v>
       </c>
       <c r="AQ35" s="11">
-        <f t="shared" ref="AQ35:AQ60" si="22">IF(AND(AN35&lt;&gt;"",AP35&lt;&gt;""),AN35+AP35,"")</f>
+        <f t="shared" ref="AQ35:AQ60" si="23">IF(AND(AN35&lt;&gt;"",AP35&lt;&gt;""),AN35+AP35,"")</f>
         <v>5.8352059999999994</v>
       </c>
     </row>
@@ -9071,7 +9083,7 @@
         <v>0.21</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>484</v>
       </c>
       <c r="O36" s="11">
@@ -9092,18 +9104,18 @@
         <v>50</v>
       </c>
       <c r="AE36" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF36" s="13">
         <v>0.21</v>
       </c>
       <c r="AG36" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH36" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL36" t="str">
@@ -9111,16 +9123,16 @@
         <v/>
       </c>
       <c r="AN36" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO36" s="13"/>
       <c r="AP36" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ36" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9154,11 +9166,11 @@
         <v>0.21</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>484</v>
       </c>
       <c r="O37" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R37" s="12" t="str">
@@ -9181,18 +9193,18 @@
         <v>50</v>
       </c>
       <c r="AE37" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF37" s="13">
         <v>0.21</v>
       </c>
       <c r="AG37" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH37" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL37" t="str">
@@ -9200,16 +9212,16 @@
         <v/>
       </c>
       <c r="AN37" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO37" s="13"/>
       <c r="AP37" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ37" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9243,11 +9255,11 @@
         <v>0.21</v>
       </c>
       <c r="N38" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>484</v>
       </c>
       <c r="O38" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R38" s="12" t="str">
@@ -9264,18 +9276,18 @@
         <v>50</v>
       </c>
       <c r="AE38" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>300</v>
       </c>
       <c r="AF38" s="13">
         <v>0.21</v>
       </c>
       <c r="AG38" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>63</v>
       </c>
       <c r="AH38" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>363</v>
       </c>
       <c r="AL38" t="str">
@@ -9283,16 +9295,16 @@
         <v/>
       </c>
       <c r="AN38" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO38" s="13"/>
       <c r="AP38" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ38" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9326,11 +9338,11 @@
         <v>0.21</v>
       </c>
       <c r="N39" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>484</v>
       </c>
       <c r="O39" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R39" s="12" t="str">
@@ -9341,18 +9353,18 @@
         <v>50</v>
       </c>
       <c r="AE39" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF39" s="13">
         <v>0.21</v>
       </c>
       <c r="AG39" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH39" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AI39" t="s">
@@ -9375,11 +9387,11 @@
         <v>0.21</v>
       </c>
       <c r="AP39" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>95.587800000000001</v>
       </c>
       <c r="AQ39" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>550.76779999999997</v>
       </c>
     </row>
@@ -9413,11 +9425,11 @@
         <v>0.21</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>484</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R40" s="12" t="str">
@@ -9428,18 +9440,18 @@
         <v>50</v>
       </c>
       <c r="AE40" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF40" s="13">
         <v>0.21</v>
       </c>
       <c r="AG40" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH40" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AI40" t="s">
@@ -9462,11 +9474,11 @@
         <v>0.21</v>
       </c>
       <c r="AP40" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>161.07</v>
       </c>
       <c r="AQ40" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>928.06999999999994</v>
       </c>
     </row>
@@ -9500,11 +9512,11 @@
         <v>0.21</v>
       </c>
       <c r="N41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>484</v>
       </c>
       <c r="O41" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R41" s="12" t="str">
@@ -9515,18 +9527,18 @@
         <v>50</v>
       </c>
       <c r="AE41" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF41" s="13">
         <v>0.21</v>
       </c>
       <c r="AG41" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH41" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AI41" t="s">
@@ -9536,7 +9548,7 @@
         <v>1346</v>
       </c>
       <c r="AL41" t="str">
-        <f>IF($B41="GWE_Item",IF($AI41="Elektra",SUMIFS($W:$W,$A:$A,$A41,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A41,$B:$B,"GWE"),IF($AI41="Gas",SUMIFS($Y:$Y,$A:$A,$A41,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A41,$B:$B,"GWE"),IF($AI41="Water",SUMIFS($AA:$AA,$A:$A,$A41,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A41,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" ref="AL41:AL72" si="24">IF($B41="GWE_Item",IF($AI41="Elektra",SUMIFS($W:$W,$A:$A,$A41,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A41,$B:$B,"GWE"),IF($AI41="Gas",SUMIFS($Y:$Y,$A:$A,$A41,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A41,$B:$B,"GWE"),IF($AI41="Water",SUMIFS($AA:$AA,$A:$A,$A41,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A41,$B:$B,"GWE"),""))),"")</f>
         <v/>
       </c>
       <c r="AN41" s="11">
@@ -9546,11 +9558,11 @@
         <v>0.21</v>
       </c>
       <c r="AP41" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>188.92649999999998</v>
       </c>
       <c r="AQ41" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1088.5764999999999</v>
       </c>
     </row>
@@ -9577,11 +9589,11 @@
         <v>0.21</v>
       </c>
       <c r="N42" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O42" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R42" s="12" t="str">
@@ -9592,35 +9604,35 @@
         <v>50</v>
       </c>
       <c r="AE42" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF42" s="13">
         <v>0.21</v>
       </c>
       <c r="AG42" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH42" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL42" t="str">
-        <f>IF($B42="GWE_Item",IF($AI42="Elektra",SUMIFS($W:$W,$A:$A,$A42,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A42,$B:$B,"GWE"),IF($AI42="Gas",SUMIFS($Y:$Y,$A:$A,$A42,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A42,$B:$B,"GWE"),IF($AI42="Water",SUMIFS($AA:$AA,$A:$A,$A42,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A42,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN42" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO42" s="13"/>
       <c r="AP42" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ42" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9647,11 +9659,11 @@
         <v>0.21</v>
       </c>
       <c r="N43" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R43" s="12" t="str">
@@ -9662,35 +9674,35 @@
         <v>50</v>
       </c>
       <c r="AE43" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF43" s="13">
         <v>0.21</v>
       </c>
       <c r="AG43" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH43" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL43" t="str">
-        <f>IF($B43="GWE_Item",IF($AI43="Elektra",SUMIFS($W:$W,$A:$A,$A43,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A43,$B:$B,"GWE"),IF($AI43="Gas",SUMIFS($Y:$Y,$A:$A,$A43,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A43,$B:$B,"GWE"),IF($AI43="Water",SUMIFS($AA:$AA,$A:$A,$A43,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A43,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN43" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO43" s="13"/>
       <c r="AP43" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ43" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9717,11 +9729,11 @@
         <v>0.21</v>
       </c>
       <c r="N44" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O44" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R44" s="12" t="str">
@@ -9732,35 +9744,35 @@
         <v>50</v>
       </c>
       <c r="AE44" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF44" s="13">
         <v>0.21</v>
       </c>
       <c r="AG44" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH44" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL44" t="str">
-        <f>IF($B44="GWE_Item",IF($AI44="Elektra",SUMIFS($W:$W,$A:$A,$A44,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A44,$B:$B,"GWE"),IF($AI44="Gas",SUMIFS($Y:$Y,$A:$A,$A44,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A44,$B:$B,"GWE"),IF($AI44="Water",SUMIFS($AA:$AA,$A:$A,$A44,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A44,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN44" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO44" s="13"/>
       <c r="AP44" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ44" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9787,11 +9799,11 @@
         <v>0.21</v>
       </c>
       <c r="N45" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R45" s="12" t="str">
@@ -9802,35 +9814,35 @@
         <v>50</v>
       </c>
       <c r="AE45" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF45" s="13">
         <v>0.21</v>
       </c>
       <c r="AG45" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH45" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL45" t="str">
-        <f>IF($B45="GWE_Item",IF($AI45="Elektra",SUMIFS($W:$W,$A:$A,$A45,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A45,$B:$B,"GWE"),IF($AI45="Gas",SUMIFS($Y:$Y,$A:$A,$A45,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A45,$B:$B,"GWE"),IF($AI45="Water",SUMIFS($AA:$AA,$A:$A,$A45,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A45,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN45" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO45" s="13"/>
       <c r="AP45" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ45" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9857,11 +9869,11 @@
         <v>0.21</v>
       </c>
       <c r="N46" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O46" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R46" s="12" t="str">
@@ -9872,35 +9884,35 @@
         <v>50</v>
       </c>
       <c r="AE46" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF46" s="13">
         <v>0.21</v>
       </c>
       <c r="AG46" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH46" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL46" t="str">
-        <f>IF($B46="GWE_Item",IF($AI46="Elektra",SUMIFS($W:$W,$A:$A,$A46,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A46,$B:$B,"GWE"),IF($AI46="Gas",SUMIFS($Y:$Y,$A:$A,$A46,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A46,$B:$B,"GWE"),IF($AI46="Water",SUMIFS($AA:$AA,$A:$A,$A46,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A46,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN46" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO46" s="13"/>
       <c r="AP46" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ46" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9927,11 +9939,11 @@
         <v>0.21</v>
       </c>
       <c r="N47" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O47" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R47" s="12" t="str">
@@ -9942,35 +9954,35 @@
         <v>50</v>
       </c>
       <c r="AE47" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF47" s="13">
         <v>0.21</v>
       </c>
       <c r="AG47" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH47" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL47" t="str">
-        <f>IF($B47="GWE_Item",IF($AI47="Elektra",SUMIFS($W:$W,$A:$A,$A47,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A47,$B:$B,"GWE"),IF($AI47="Gas",SUMIFS($Y:$Y,$A:$A,$A47,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A47,$B:$B,"GWE"),IF($AI47="Water",SUMIFS($AA:$AA,$A:$A,$A47,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A47,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN47" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO47" s="13"/>
       <c r="AP47" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ47" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9997,11 +10009,11 @@
         <v>0.21</v>
       </c>
       <c r="N48" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O48" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R48" s="12" t="str">
@@ -10012,35 +10024,35 @@
         <v>50</v>
       </c>
       <c r="AE48" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF48" s="13">
         <v>0.21</v>
       </c>
       <c r="AG48" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH48" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL48" t="str">
-        <f>IF($B48="GWE_Item",IF($AI48="Elektra",SUMIFS($W:$W,$A:$A,$A48,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A48,$B:$B,"GWE"),IF($AI48="Gas",SUMIFS($Y:$Y,$A:$A,$A48,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A48,$B:$B,"GWE"),IF($AI48="Water",SUMIFS($AA:$AA,$A:$A,$A48,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A48,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN48" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO48" s="13"/>
       <c r="AP48" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ48" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10067,11 +10079,11 @@
         <v>0.21</v>
       </c>
       <c r="N49" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O49" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R49" s="12" t="str">
@@ -10082,35 +10094,35 @@
         <v>50</v>
       </c>
       <c r="AE49" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF49" s="13">
         <v>0.21</v>
       </c>
       <c r="AG49" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH49" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL49" t="str">
-        <f>IF($B49="GWE_Item",IF($AI49="Elektra",SUMIFS($W:$W,$A:$A,$A49,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A49,$B:$B,"GWE"),IF($AI49="Gas",SUMIFS($Y:$Y,$A:$A,$A49,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A49,$B:$B,"GWE"),IF($AI49="Water",SUMIFS($AA:$AA,$A:$A,$A49,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A49,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN49" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO49" s="13"/>
       <c r="AP49" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ49" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10137,11 +10149,11 @@
         <v>0.21</v>
       </c>
       <c r="N50" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O50" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R50" s="12" t="str">
@@ -10152,35 +10164,35 @@
         <v>50</v>
       </c>
       <c r="AE50" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF50" s="13">
         <v>0.21</v>
       </c>
       <c r="AG50" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH50" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL50" t="str">
-        <f>IF($B50="GWE_Item",IF($AI50="Elektra",SUMIFS($W:$W,$A:$A,$A50,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A50,$B:$B,"GWE"),IF($AI50="Gas",SUMIFS($Y:$Y,$A:$A,$A50,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A50,$B:$B,"GWE"),IF($AI50="Water",SUMIFS($AA:$AA,$A:$A,$A50,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A50,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN50" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO50" s="13"/>
       <c r="AP50" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ50" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10207,11 +10219,11 @@
         <v>0.21</v>
       </c>
       <c r="N51" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R51" s="12" t="str">
@@ -10222,35 +10234,35 @@
         <v>50</v>
       </c>
       <c r="AE51" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF51" s="13">
         <v>0.21</v>
       </c>
       <c r="AG51" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH51" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL51" t="str">
-        <f>IF($B51="GWE_Item",IF($AI51="Elektra",SUMIFS($W:$W,$A:$A,$A51,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A51,$B:$B,"GWE"),IF($AI51="Gas",SUMIFS($Y:$Y,$A:$A,$A51,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A51,$B:$B,"GWE"),IF($AI51="Water",SUMIFS($AA:$AA,$A:$A,$A51,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A51,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN51" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO51" s="13"/>
       <c r="AP51" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ51" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10277,11 +10289,11 @@
         <v>0.21</v>
       </c>
       <c r="N52" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O52" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R52" s="12" t="str">
@@ -10292,35 +10304,35 @@
         <v>50</v>
       </c>
       <c r="AE52" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF52" s="13">
         <v>0.21</v>
       </c>
       <c r="AG52" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH52" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL52" t="str">
-        <f>IF($B52="GWE_Item",IF($AI52="Elektra",SUMIFS($W:$W,$A:$A,$A52,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A52,$B:$B,"GWE"),IF($AI52="Gas",SUMIFS($Y:$Y,$A:$A,$A52,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A52,$B:$B,"GWE"),IF($AI52="Water",SUMIFS($AA:$AA,$A:$A,$A52,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A52,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN52" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO52" s="13"/>
       <c r="AP52" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ52" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10347,11 +10359,11 @@
         <v>0.21</v>
       </c>
       <c r="N53" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O53" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R53" s="12" t="str">
@@ -10362,35 +10374,35 @@
         <v>50</v>
       </c>
       <c r="AE53" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF53" s="13">
         <v>0.21</v>
       </c>
       <c r="AG53" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH53" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL53" t="str">
-        <f>IF($B53="GWE_Item",IF($AI53="Elektra",SUMIFS($W:$W,$A:$A,$A53,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A53,$B:$B,"GWE"),IF($AI53="Gas",SUMIFS($Y:$Y,$A:$A,$A53,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A53,$B:$B,"GWE"),IF($AI53="Water",SUMIFS($AA:$AA,$A:$A,$A53,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A53,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN53" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO53" s="13"/>
       <c r="AP53" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ53" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10417,11 +10429,11 @@
         <v>0.21</v>
       </c>
       <c r="N54" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R54" s="12" t="str">
@@ -10432,35 +10444,35 @@
         <v>50</v>
       </c>
       <c r="AE54" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF54" s="13">
         <v>0.21</v>
       </c>
       <c r="AG54" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH54" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL54" t="str">
-        <f>IF($B54="GWE_Item",IF($AI54="Elektra",SUMIFS($W:$W,$A:$A,$A54,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A54,$B:$B,"GWE"),IF($AI54="Gas",SUMIFS($Y:$Y,$A:$A,$A54,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A54,$B:$B,"GWE"),IF($AI54="Water",SUMIFS($AA:$AA,$A:$A,$A54,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A54,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN54" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO54" s="13"/>
       <c r="AP54" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ54" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10487,11 +10499,11 @@
         <v>0.21</v>
       </c>
       <c r="N55" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O55" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R55" s="12" t="str">
@@ -10502,35 +10514,35 @@
         <v>50</v>
       </c>
       <c r="AE55" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF55" s="13">
         <v>0.21</v>
       </c>
       <c r="AG55" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH55" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL55" t="str">
-        <f>IF($B55="GWE_Item",IF($AI55="Elektra",SUMIFS($W:$W,$A:$A,$A55,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A55,$B:$B,"GWE"),IF($AI55="Gas",SUMIFS($Y:$Y,$A:$A,$A55,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A55,$B:$B,"GWE"),IF($AI55="Water",SUMIFS($AA:$AA,$A:$A,$A55,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A55,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN55" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO55" s="13"/>
       <c r="AP55" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ55" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10557,11 +10569,11 @@
         <v>0.21</v>
       </c>
       <c r="N56" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O56" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R56" s="12" t="str">
@@ -10572,35 +10584,35 @@
         <v>50</v>
       </c>
       <c r="AE56" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF56" s="13">
         <v>0.21</v>
       </c>
       <c r="AG56" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH56" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL56" t="str">
-        <f>IF($B56="GWE_Item",IF($AI56="Elektra",SUMIFS($W:$W,$A:$A,$A56,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A56,$B:$B,"GWE"),IF($AI56="Gas",SUMIFS($Y:$Y,$A:$A,$A56,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A56,$B:$B,"GWE"),IF($AI56="Water",SUMIFS($AA:$AA,$A:$A,$A56,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A56,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN56" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO56" s="13"/>
       <c r="AP56" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ56" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10627,11 +10639,11 @@
         <v>0.21</v>
       </c>
       <c r="N57" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R57" s="12" t="str">
@@ -10642,35 +10654,35 @@
         <v>50</v>
       </c>
       <c r="AE57" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF57" s="13">
         <v>0.21</v>
       </c>
       <c r="AG57" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH57" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL57" t="str">
-        <f>IF($B57="GWE_Item",IF($AI57="Elektra",SUMIFS($W:$W,$A:$A,$A57,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A57,$B:$B,"GWE"),IF($AI57="Gas",SUMIFS($Y:$Y,$A:$A,$A57,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A57,$B:$B,"GWE"),IF($AI57="Water",SUMIFS($AA:$AA,$A:$A,$A57,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A57,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN57" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO57" s="13"/>
       <c r="AP57" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ57" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10697,11 +10709,11 @@
         <v>0.21</v>
       </c>
       <c r="N58" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O58" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R58" s="12" t="str">
@@ -10712,35 +10724,35 @@
         <v>50</v>
       </c>
       <c r="AE58" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF58" s="13">
         <v>0.21</v>
       </c>
       <c r="AG58" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH58" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL58" t="str">
-        <f>IF($B58="GWE_Item",IF($AI58="Elektra",SUMIFS($W:$W,$A:$A,$A58,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A58,$B:$B,"GWE"),IF($AI58="Gas",SUMIFS($Y:$Y,$A:$A,$A58,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A58,$B:$B,"GWE"),IF($AI58="Water",SUMIFS($AA:$AA,$A:$A,$A58,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A58,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN58" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO58" s="13"/>
       <c r="AP58" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ58" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10767,11 +10779,11 @@
         <v>0.21</v>
       </c>
       <c r="N59" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O59" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R59" s="12" t="str">
@@ -10782,35 +10794,35 @@
         <v>50</v>
       </c>
       <c r="AE59" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF59" s="13">
         <v>0.21</v>
       </c>
       <c r="AG59" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH59" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL59" t="str">
-        <f>IF($B59="GWE_Item",IF($AI59="Elektra",SUMIFS($W:$W,$A:$A,$A59,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A59,$B:$B,"GWE"),IF($AI59="Gas",SUMIFS($Y:$Y,$A:$A,$A59,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A59,$B:$B,"GWE"),IF($AI59="Water",SUMIFS($AA:$AA,$A:$A,$A59,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A59,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN59" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO59" s="13"/>
       <c r="AP59" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ59" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10837,11 +10849,11 @@
         <v>0.21</v>
       </c>
       <c r="N60" s="11" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="O60" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R60" s="12" t="str">
@@ -10852,35 +10864,35 @@
         <v>50</v>
       </c>
       <c r="AE60" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF60" s="13">
         <v>0.21</v>
       </c>
       <c r="AG60" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH60" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL60" t="str">
-        <f>IF($B60="GWE_Item",IF($AI60="Elektra",SUMIFS($W:$W,$A:$A,$A60,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A60,$B:$B,"GWE"),IF($AI60="Gas",SUMIFS($Y:$Y,$A:$A,$A60,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A60,$B:$B,"GWE"),IF($AI60="Water",SUMIFS($AA:$AA,$A:$A,$A60,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A60,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN60" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO60" s="13"/>
       <c r="AP60" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ60" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -10907,11 +10919,11 @@
         <v>0.21</v>
       </c>
       <c r="N61" s="11" t="e">
-        <f t="shared" ref="N61:N92" si="23">L61 * (1 + M61)</f>
+        <f t="shared" ref="N61:N92" si="25">L61 * (1 + M61)</f>
         <v>#VALUE!</v>
       </c>
       <c r="O61" s="11">
-        <f t="shared" ref="O61:O92" si="24">IF(K61="Eigen Beheer",0,IF(AND(ISNUMBER(N61),I61&lt;&gt;"",H61&lt;&gt;""),YEARFRAC(H61,I61,4)*12*N61,0))</f>
+        <f t="shared" ref="O61:O92" si="26">IF(K61="Eigen Beheer",0,IF(AND(ISNUMBER(N61),I61&lt;&gt;"",H61&lt;&gt;""),YEARFRAC(H61,I61,4)*12*N61,0))</f>
         <v>0</v>
       </c>
       <c r="R61" s="12" t="str">
@@ -10922,35 +10934,35 @@
         <v>50</v>
       </c>
       <c r="AE61" s="11" t="str">
-        <f t="shared" ref="AE61:AE92" si="25">IF(AB61="","",IF(ISNUMBER(SEARCH("Basis",AB61)),(250/1.21)+MAX(0,AC61-5)*AD61,IF(ISNUMBER(SEARCH("Intensief",AB61)),(375/1.21)+MAX(0,AC61-7)*AD61,AC61*AD61)))</f>
+        <f t="shared" ref="AE61:AE92" si="27">IF(AB61="","",IF(ISNUMBER(SEARCH("Basis",AB61)),(250/1.21)+MAX(0,AC61-5)*AD61,IF(ISNUMBER(SEARCH("Intensief",AB61)),(375/1.21)+MAX(0,AC61-7)*AD61,AC61*AD61)))</f>
         <v/>
       </c>
       <c r="AF61" s="13">
         <v>0.21</v>
       </c>
       <c r="AG61" s="11" t="str">
-        <f t="shared" ref="AG61:AG92" si="26">IF(AE61&lt;&gt;"",AE61*AF61,"")</f>
+        <f t="shared" ref="AG61:AG92" si="28">IF(AE61&lt;&gt;"",AE61*AF61,"")</f>
         <v/>
       </c>
       <c r="AH61" s="11" t="str">
-        <f t="shared" ref="AH61:AH92" si="27">IF(AE61&lt;&gt;"",AE61+AG61,"")</f>
+        <f t="shared" ref="AH61:AH92" si="29">IF(AE61&lt;&gt;"",AE61+AG61,"")</f>
         <v/>
       </c>
       <c r="AL61" t="str">
-        <f>IF($B61="GWE_Item",IF($AI61="Elektra",SUMIFS($W:$W,$A:$A,$A61,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A61,$B:$B,"GWE"),IF($AI61="Gas",SUMIFS($Y:$Y,$A:$A,$A61,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A61,$B:$B,"GWE"),IF($AI61="Water",SUMIFS($AA:$AA,$A:$A,$A61,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A61,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN61" s="11" t="str">
-        <f t="shared" ref="AN61:AN92" si="28">IF(AND(AL61&lt;&gt;"",AM61&lt;&gt;""),AL61*AM61,"")</f>
+        <f t="shared" ref="AN61:AN92" si="30">IF(AND(AL61&lt;&gt;"",AM61&lt;&gt;""),AL61*AM61,"")</f>
         <v/>
       </c>
       <c r="AO61" s="13"/>
       <c r="AP61" s="11" t="str">
-        <f t="shared" ref="AP61:AP92" si="29">IF(AND(AN61&lt;&gt;"",AO61&lt;&gt;""),AN61*AO61,"")</f>
+        <f t="shared" ref="AP61:AP92" si="31">IF(AND(AN61&lt;&gt;"",AO61&lt;&gt;""),AN61*AO61,"")</f>
         <v/>
       </c>
       <c r="AQ61" s="11" t="str">
-        <f t="shared" ref="AQ61:AQ92" si="30">IF(AND(AN61&lt;&gt;"",AP61&lt;&gt;""),AN61+AP61,"")</f>
+        <f t="shared" ref="AQ61:AQ92" si="32">IF(AND(AN61&lt;&gt;"",AP61&lt;&gt;""),AN61+AP61,"")</f>
         <v/>
       </c>
     </row>
@@ -10977,11 +10989,11 @@
         <v>0.21</v>
       </c>
       <c r="N62" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O62" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R62" s="12" t="str">
@@ -10992,35 +11004,35 @@
         <v>50</v>
       </c>
       <c r="AE62" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF62" s="13">
         <v>0.21</v>
       </c>
       <c r="AG62" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH62" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL62" t="str">
-        <f>IF($B62="GWE_Item",IF($AI62="Elektra",SUMIFS($W:$W,$A:$A,$A62,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A62,$B:$B,"GWE"),IF($AI62="Gas",SUMIFS($Y:$Y,$A:$A,$A62,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A62,$B:$B,"GWE"),IF($AI62="Water",SUMIFS($AA:$AA,$A:$A,$A62,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A62,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN62" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO62" s="13"/>
       <c r="AP62" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ62" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11047,11 +11059,11 @@
         <v>0.21</v>
       </c>
       <c r="N63" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O63" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R63" s="12" t="str">
@@ -11062,35 +11074,35 @@
         <v>50</v>
       </c>
       <c r="AE63" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF63" s="13">
         <v>0.21</v>
       </c>
       <c r="AG63" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH63" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL63" t="str">
-        <f>IF($B63="GWE_Item",IF($AI63="Elektra",SUMIFS($W:$W,$A:$A,$A63,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A63,$B:$B,"GWE"),IF($AI63="Gas",SUMIFS($Y:$Y,$A:$A,$A63,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A63,$B:$B,"GWE"),IF($AI63="Water",SUMIFS($AA:$AA,$A:$A,$A63,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A63,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN63" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO63" s="13"/>
       <c r="AP63" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ63" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11117,11 +11129,11 @@
         <v>0.21</v>
       </c>
       <c r="N64" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R64" s="12" t="str">
@@ -11132,35 +11144,35 @@
         <v>50</v>
       </c>
       <c r="AE64" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF64" s="13">
         <v>0.21</v>
       </c>
       <c r="AG64" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH64" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL64" t="str">
-        <f>IF($B64="GWE_Item",IF($AI64="Elektra",SUMIFS($W:$W,$A:$A,$A64,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A64,$B:$B,"GWE"),IF($AI64="Gas",SUMIFS($Y:$Y,$A:$A,$A64,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A64,$B:$B,"GWE"),IF($AI64="Water",SUMIFS($AA:$AA,$A:$A,$A64,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A64,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN64" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO64" s="13"/>
       <c r="AP64" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ64" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11187,11 +11199,11 @@
         <v>0.21</v>
       </c>
       <c r="N65" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O65" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R65" s="12" t="str">
@@ -11202,35 +11214,35 @@
         <v>50</v>
       </c>
       <c r="AE65" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF65" s="13">
         <v>0.21</v>
       </c>
       <c r="AG65" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH65" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL65" t="str">
-        <f>IF($B65="GWE_Item",IF($AI65="Elektra",SUMIFS($W:$W,$A:$A,$A65,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A65,$B:$B,"GWE"),IF($AI65="Gas",SUMIFS($Y:$Y,$A:$A,$A65,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A65,$B:$B,"GWE"),IF($AI65="Water",SUMIFS($AA:$AA,$A:$A,$A65,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A65,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN65" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO65" s="13"/>
       <c r="AP65" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ65" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11257,11 +11269,11 @@
         <v>0.21</v>
       </c>
       <c r="N66" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O66" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R66" s="12" t="str">
@@ -11272,35 +11284,35 @@
         <v>50</v>
       </c>
       <c r="AE66" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF66" s="13">
         <v>0.21</v>
       </c>
       <c r="AG66" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH66" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL66" t="str">
-        <f>IF($B66="GWE_Item",IF($AI66="Elektra",SUMIFS($W:$W,$A:$A,$A66,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A66,$B:$B,"GWE"),IF($AI66="Gas",SUMIFS($Y:$Y,$A:$A,$A66,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A66,$B:$B,"GWE"),IF($AI66="Water",SUMIFS($AA:$AA,$A:$A,$A66,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A66,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN66" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO66" s="13"/>
       <c r="AP66" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ66" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11327,11 +11339,11 @@
         <v>0.21</v>
       </c>
       <c r="N67" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O67" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R67" s="12" t="str">
@@ -11342,35 +11354,35 @@
         <v>50</v>
       </c>
       <c r="AE67" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF67" s="13">
         <v>0.21</v>
       </c>
       <c r="AG67" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH67" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL67" t="str">
-        <f>IF($B67="GWE_Item",IF($AI67="Elektra",SUMIFS($W:$W,$A:$A,$A67,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A67,$B:$B,"GWE"),IF($AI67="Gas",SUMIFS($Y:$Y,$A:$A,$A67,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A67,$B:$B,"GWE"),IF($AI67="Water",SUMIFS($AA:$AA,$A:$A,$A67,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A67,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN67" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO67" s="13"/>
       <c r="AP67" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ67" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11397,11 +11409,11 @@
         <v>0.21</v>
       </c>
       <c r="N68" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R68" s="12" t="str">
@@ -11412,35 +11424,35 @@
         <v>50</v>
       </c>
       <c r="AE68" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF68" s="13">
         <v>0.21</v>
       </c>
       <c r="AG68" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH68" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL68" t="str">
-        <f>IF($B68="GWE_Item",IF($AI68="Elektra",SUMIFS($W:$W,$A:$A,$A68,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A68,$B:$B,"GWE"),IF($AI68="Gas",SUMIFS($Y:$Y,$A:$A,$A68,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A68,$B:$B,"GWE"),IF($AI68="Water",SUMIFS($AA:$AA,$A:$A,$A68,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A68,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN68" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO68" s="13"/>
       <c r="AP68" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ68" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11467,11 +11479,11 @@
         <v>0.21</v>
       </c>
       <c r="N69" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O69" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R69" s="12" t="str">
@@ -11482,35 +11494,35 @@
         <v>50</v>
       </c>
       <c r="AE69" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF69" s="13">
         <v>0.21</v>
       </c>
       <c r="AG69" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH69" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL69" t="str">
-        <f>IF($B69="GWE_Item",IF($AI69="Elektra",SUMIFS($W:$W,$A:$A,$A69,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A69,$B:$B,"GWE"),IF($AI69="Gas",SUMIFS($Y:$Y,$A:$A,$A69,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A69,$B:$B,"GWE"),IF($AI69="Water",SUMIFS($AA:$AA,$A:$A,$A69,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A69,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN69" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO69" s="13"/>
       <c r="AP69" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ69" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11537,11 +11549,11 @@
         <v>0.21</v>
       </c>
       <c r="N70" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O70" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R70" s="12" t="str">
@@ -11552,35 +11564,35 @@
         <v>50</v>
       </c>
       <c r="AE70" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF70" s="13">
         <v>0.21</v>
       </c>
       <c r="AG70" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH70" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL70" t="str">
-        <f>IF($B70="GWE_Item",IF($AI70="Elektra",SUMIFS($W:$W,$A:$A,$A70,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A70,$B:$B,"GWE"),IF($AI70="Gas",SUMIFS($Y:$Y,$A:$A,$A70,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A70,$B:$B,"GWE"),IF($AI70="Water",SUMIFS($AA:$AA,$A:$A,$A70,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A70,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN70" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO70" s="13"/>
       <c r="AP70" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ70" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11607,11 +11619,11 @@
         <v>0.21</v>
       </c>
       <c r="N71" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O71" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R71" s="12" t="str">
@@ -11622,35 +11634,35 @@
         <v>50</v>
       </c>
       <c r="AE71" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF71" s="13">
         <v>0.21</v>
       </c>
       <c r="AG71" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH71" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL71" t="str">
-        <f>IF($B71="GWE_Item",IF($AI71="Elektra",SUMIFS($W:$W,$A:$A,$A71,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A71,$B:$B,"GWE"),IF($AI71="Gas",SUMIFS($Y:$Y,$A:$A,$A71,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A71,$B:$B,"GWE"),IF($AI71="Water",SUMIFS($AA:$AA,$A:$A,$A71,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A71,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN71" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO71" s="13"/>
       <c r="AP71" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ71" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11677,11 +11689,11 @@
         <v>0.21</v>
       </c>
       <c r="N72" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O72" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R72" s="12" t="str">
@@ -11692,35 +11704,35 @@
         <v>50</v>
       </c>
       <c r="AE72" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF72" s="13">
         <v>0.21</v>
       </c>
       <c r="AG72" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH72" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL72" t="str">
-        <f>IF($B72="GWE_Item",IF($AI72="Elektra",SUMIFS($W:$W,$A:$A,$A72,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A72,$B:$B,"GWE"),IF($AI72="Gas",SUMIFS($Y:$Y,$A:$A,$A72,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A72,$B:$B,"GWE"),IF($AI72="Water",SUMIFS($AA:$AA,$A:$A,$A72,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A72,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN72" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO72" s="13"/>
       <c r="AP72" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ72" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11747,11 +11759,11 @@
         <v>0.21</v>
       </c>
       <c r="N73" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O73" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R73" s="12" t="str">
@@ -11762,35 +11774,35 @@
         <v>50</v>
       </c>
       <c r="AE73" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF73" s="13">
         <v>0.21</v>
       </c>
       <c r="AG73" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH73" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL73" t="str">
-        <f>IF($B73="GWE_Item",IF($AI73="Elektra",SUMIFS($W:$W,$A:$A,$A73,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A73,$B:$B,"GWE"),IF($AI73="Gas",SUMIFS($Y:$Y,$A:$A,$A73,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A73,$B:$B,"GWE"),IF($AI73="Water",SUMIFS($AA:$AA,$A:$A,$A73,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A73,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" ref="AL73:AL104" si="33">IF($B73="GWE_Item",IF($AI73="Elektra",SUMIFS($W:$W,$A:$A,$A73,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A73,$B:$B,"GWE"),IF($AI73="Gas",SUMIFS($Y:$Y,$A:$A,$A73,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A73,$B:$B,"GWE"),IF($AI73="Water",SUMIFS($AA:$AA,$A:$A,$A73,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A73,$B:$B,"GWE"),""))),"")</f>
         <v/>
       </c>
       <c r="AN73" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO73" s="13"/>
       <c r="AP73" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ73" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11817,11 +11829,11 @@
         <v>0.21</v>
       </c>
       <c r="N74" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O74" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R74" s="12" t="str">
@@ -11832,35 +11844,35 @@
         <v>50</v>
       </c>
       <c r="AE74" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF74" s="13">
         <v>0.21</v>
       </c>
       <c r="AG74" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH74" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL74" t="str">
-        <f>IF($B74="GWE_Item",IF($AI74="Elektra",SUMIFS($W:$W,$A:$A,$A74,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A74,$B:$B,"GWE"),IF($AI74="Gas",SUMIFS($Y:$Y,$A:$A,$A74,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A74,$B:$B,"GWE"),IF($AI74="Water",SUMIFS($AA:$AA,$A:$A,$A74,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A74,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN74" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO74" s="13"/>
       <c r="AP74" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ74" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11887,11 +11899,11 @@
         <v>0.21</v>
       </c>
       <c r="N75" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O75" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R75" s="12" t="str">
@@ -11902,35 +11914,35 @@
         <v>50</v>
       </c>
       <c r="AE75" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF75" s="13">
         <v>0.21</v>
       </c>
       <c r="AG75" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH75" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL75" t="str">
-        <f>IF($B75="GWE_Item",IF($AI75="Elektra",SUMIFS($W:$W,$A:$A,$A75,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A75,$B:$B,"GWE"),IF($AI75="Gas",SUMIFS($Y:$Y,$A:$A,$A75,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A75,$B:$B,"GWE"),IF($AI75="Water",SUMIFS($AA:$AA,$A:$A,$A75,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A75,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN75" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO75" s="13"/>
       <c r="AP75" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ75" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -11957,11 +11969,11 @@
         <v>0.21</v>
       </c>
       <c r="N76" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O76" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R76" s="12" t="str">
@@ -11972,35 +11984,35 @@
         <v>50</v>
       </c>
       <c r="AE76" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF76" s="13">
         <v>0.21</v>
       </c>
       <c r="AG76" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH76" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL76" t="str">
-        <f>IF($B76="GWE_Item",IF($AI76="Elektra",SUMIFS($W:$W,$A:$A,$A76,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A76,$B:$B,"GWE"),IF($AI76="Gas",SUMIFS($Y:$Y,$A:$A,$A76,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A76,$B:$B,"GWE"),IF($AI76="Water",SUMIFS($AA:$AA,$A:$A,$A76,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A76,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN76" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO76" s="13"/>
       <c r="AP76" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ76" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12027,11 +12039,11 @@
         <v>0.21</v>
       </c>
       <c r="N77" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O77" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R77" s="12" t="str">
@@ -12042,35 +12054,35 @@
         <v>50</v>
       </c>
       <c r="AE77" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF77" s="13">
         <v>0.21</v>
       </c>
       <c r="AG77" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH77" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL77" t="str">
-        <f>IF($B77="GWE_Item",IF($AI77="Elektra",SUMIFS($W:$W,$A:$A,$A77,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A77,$B:$B,"GWE"),IF($AI77="Gas",SUMIFS($Y:$Y,$A:$A,$A77,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A77,$B:$B,"GWE"),IF($AI77="Water",SUMIFS($AA:$AA,$A:$A,$A77,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A77,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN77" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO77" s="13"/>
       <c r="AP77" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ77" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12097,11 +12109,11 @@
         <v>0.21</v>
       </c>
       <c r="N78" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O78" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R78" s="12" t="str">
@@ -12112,35 +12124,35 @@
         <v>50</v>
       </c>
       <c r="AE78" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF78" s="13">
         <v>0.21</v>
       </c>
       <c r="AG78" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH78" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL78" t="str">
-        <f>IF($B78="GWE_Item",IF($AI78="Elektra",SUMIFS($W:$W,$A:$A,$A78,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A78,$B:$B,"GWE"),IF($AI78="Gas",SUMIFS($Y:$Y,$A:$A,$A78,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A78,$B:$B,"GWE"),IF($AI78="Water",SUMIFS($AA:$AA,$A:$A,$A78,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A78,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN78" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO78" s="13"/>
       <c r="AP78" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ78" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12167,11 +12179,11 @@
         <v>0.21</v>
       </c>
       <c r="N79" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O79" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R79" s="12" t="str">
@@ -12182,35 +12194,35 @@
         <v>50</v>
       </c>
       <c r="AE79" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF79" s="13">
         <v>0.21</v>
       </c>
       <c r="AG79" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH79" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL79" t="str">
-        <f>IF($B79="GWE_Item",IF($AI79="Elektra",SUMIFS($W:$W,$A:$A,$A79,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A79,$B:$B,"GWE"),IF($AI79="Gas",SUMIFS($Y:$Y,$A:$A,$A79,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A79,$B:$B,"GWE"),IF($AI79="Water",SUMIFS($AA:$AA,$A:$A,$A79,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A79,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN79" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO79" s="13"/>
       <c r="AP79" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ79" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12237,11 +12249,11 @@
         <v>0.21</v>
       </c>
       <c r="N80" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R80" s="12" t="str">
@@ -12252,35 +12264,35 @@
         <v>50</v>
       </c>
       <c r="AE80" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF80" s="13">
         <v>0.21</v>
       </c>
       <c r="AG80" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH80" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL80" t="str">
-        <f>IF($B80="GWE_Item",IF($AI80="Elektra",SUMIFS($W:$W,$A:$A,$A80,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A80,$B:$B,"GWE"),IF($AI80="Gas",SUMIFS($Y:$Y,$A:$A,$A80,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A80,$B:$B,"GWE"),IF($AI80="Water",SUMIFS($AA:$AA,$A:$A,$A80,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A80,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN80" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO80" s="13"/>
       <c r="AP80" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ80" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12307,11 +12319,11 @@
         <v>0.21</v>
       </c>
       <c r="N81" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O81" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R81" s="12" t="str">
@@ -12322,35 +12334,35 @@
         <v>50</v>
       </c>
       <c r="AE81" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF81" s="13">
         <v>0.21</v>
       </c>
       <c r="AG81" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH81" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL81" t="str">
-        <f>IF($B81="GWE_Item",IF($AI81="Elektra",SUMIFS($W:$W,$A:$A,$A81,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A81,$B:$B,"GWE"),IF($AI81="Gas",SUMIFS($Y:$Y,$A:$A,$A81,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A81,$B:$B,"GWE"),IF($AI81="Water",SUMIFS($AA:$AA,$A:$A,$A81,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A81,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN81" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO81" s="13"/>
       <c r="AP81" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ81" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12377,11 +12389,11 @@
         <v>0.21</v>
       </c>
       <c r="N82" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O82" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R82" s="12" t="str">
@@ -12392,35 +12404,35 @@
         <v>50</v>
       </c>
       <c r="AE82" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF82" s="13">
         <v>0.21</v>
       </c>
       <c r="AG82" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH82" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL82" t="str">
-        <f>IF($B82="GWE_Item",IF($AI82="Elektra",SUMIFS($W:$W,$A:$A,$A82,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A82,$B:$B,"GWE"),IF($AI82="Gas",SUMIFS($Y:$Y,$A:$A,$A82,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A82,$B:$B,"GWE"),IF($AI82="Water",SUMIFS($AA:$AA,$A:$A,$A82,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A82,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN82" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO82" s="13"/>
       <c r="AP82" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ82" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12447,11 +12459,11 @@
         <v>0.21</v>
       </c>
       <c r="N83" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O83" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R83" s="12" t="str">
@@ -12462,35 +12474,35 @@
         <v>50</v>
       </c>
       <c r="AE83" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF83" s="13">
         <v>0.21</v>
       </c>
       <c r="AG83" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH83" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL83" t="str">
-        <f>IF($B83="GWE_Item",IF($AI83="Elektra",SUMIFS($W:$W,$A:$A,$A83,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A83,$B:$B,"GWE"),IF($AI83="Gas",SUMIFS($Y:$Y,$A:$A,$A83,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A83,$B:$B,"GWE"),IF($AI83="Water",SUMIFS($AA:$AA,$A:$A,$A83,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A83,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN83" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO83" s="13"/>
       <c r="AP83" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ83" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12517,11 +12529,11 @@
         <v>0.21</v>
       </c>
       <c r="N84" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O84" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R84" s="12" t="str">
@@ -12532,35 +12544,35 @@
         <v>50</v>
       </c>
       <c r="AE84" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF84" s="13">
         <v>0.21</v>
       </c>
       <c r="AG84" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH84" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL84" t="str">
-        <f>IF($B84="GWE_Item",IF($AI84="Elektra",SUMIFS($W:$W,$A:$A,$A84,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A84,$B:$B,"GWE"),IF($AI84="Gas",SUMIFS($Y:$Y,$A:$A,$A84,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A84,$B:$B,"GWE"),IF($AI84="Water",SUMIFS($AA:$AA,$A:$A,$A84,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A84,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN84" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO84" s="13"/>
       <c r="AP84" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ84" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12587,11 +12599,11 @@
         <v>0.21</v>
       </c>
       <c r="N85" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O85" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R85" s="12" t="str">
@@ -12602,35 +12614,35 @@
         <v>50</v>
       </c>
       <c r="AE85" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF85" s="13">
         <v>0.21</v>
       </c>
       <c r="AG85" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH85" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL85" t="str">
-        <f>IF($B85="GWE_Item",IF($AI85="Elektra",SUMIFS($W:$W,$A:$A,$A85,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A85,$B:$B,"GWE"),IF($AI85="Gas",SUMIFS($Y:$Y,$A:$A,$A85,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A85,$B:$B,"GWE"),IF($AI85="Water",SUMIFS($AA:$AA,$A:$A,$A85,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A85,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN85" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO85" s="13"/>
       <c r="AP85" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ85" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12657,11 +12669,11 @@
         <v>0.21</v>
       </c>
       <c r="N86" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O86" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R86" s="12" t="str">
@@ -12672,35 +12684,35 @@
         <v>50</v>
       </c>
       <c r="AE86" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF86" s="13">
         <v>0.21</v>
       </c>
       <c r="AG86" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH86" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL86" t="str">
-        <f>IF($B86="GWE_Item",IF($AI86="Elektra",SUMIFS($W:$W,$A:$A,$A86,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A86,$B:$B,"GWE"),IF($AI86="Gas",SUMIFS($Y:$Y,$A:$A,$A86,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A86,$B:$B,"GWE"),IF($AI86="Water",SUMIFS($AA:$AA,$A:$A,$A86,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A86,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN86" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO86" s="13"/>
       <c r="AP86" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ86" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12727,11 +12739,11 @@
         <v>0.21</v>
       </c>
       <c r="N87" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O87" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R87" s="12" t="str">
@@ -12742,35 +12754,35 @@
         <v>50</v>
       </c>
       <c r="AE87" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF87" s="13">
         <v>0.21</v>
       </c>
       <c r="AG87" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH87" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL87" t="str">
-        <f>IF($B87="GWE_Item",IF($AI87="Elektra",SUMIFS($W:$W,$A:$A,$A87,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A87,$B:$B,"GWE"),IF($AI87="Gas",SUMIFS($Y:$Y,$A:$A,$A87,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A87,$B:$B,"GWE"),IF($AI87="Water",SUMIFS($AA:$AA,$A:$A,$A87,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A87,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN87" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO87" s="13"/>
       <c r="AP87" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ87" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12797,11 +12809,11 @@
         <v>0.21</v>
       </c>
       <c r="N88" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O88" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R88" s="12" t="str">
@@ -12812,35 +12824,35 @@
         <v>50</v>
       </c>
       <c r="AE88" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF88" s="13">
         <v>0.21</v>
       </c>
       <c r="AG88" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH88" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL88" t="str">
-        <f>IF($B88="GWE_Item",IF($AI88="Elektra",SUMIFS($W:$W,$A:$A,$A88,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A88,$B:$B,"GWE"),IF($AI88="Gas",SUMIFS($Y:$Y,$A:$A,$A88,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A88,$B:$B,"GWE"),IF($AI88="Water",SUMIFS($AA:$AA,$A:$A,$A88,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A88,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN88" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO88" s="13"/>
       <c r="AP88" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ88" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12867,11 +12879,11 @@
         <v>0.21</v>
       </c>
       <c r="N89" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O89" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R89" s="12" t="str">
@@ -12882,35 +12894,35 @@
         <v>50</v>
       </c>
       <c r="AE89" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF89" s="13">
         <v>0.21</v>
       </c>
       <c r="AG89" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH89" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL89" t="str">
-        <f>IF($B89="GWE_Item",IF($AI89="Elektra",SUMIFS($W:$W,$A:$A,$A89,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A89,$B:$B,"GWE"),IF($AI89="Gas",SUMIFS($Y:$Y,$A:$A,$A89,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A89,$B:$B,"GWE"),IF($AI89="Water",SUMIFS($AA:$AA,$A:$A,$A89,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A89,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN89" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO89" s="13"/>
       <c r="AP89" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ89" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -12937,11 +12949,11 @@
         <v>0.21</v>
       </c>
       <c r="N90" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O90" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R90" s="12" t="str">
@@ -12952,35 +12964,35 @@
         <v>50</v>
       </c>
       <c r="AE90" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF90" s="13">
         <v>0.21</v>
       </c>
       <c r="AG90" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH90" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL90" t="str">
-        <f>IF($B90="GWE_Item",IF($AI90="Elektra",SUMIFS($W:$W,$A:$A,$A90,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A90,$B:$B,"GWE"),IF($AI90="Gas",SUMIFS($Y:$Y,$A:$A,$A90,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A90,$B:$B,"GWE"),IF($AI90="Water",SUMIFS($AA:$AA,$A:$A,$A90,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A90,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN90" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO90" s="13"/>
       <c r="AP90" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ90" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -13007,11 +13019,11 @@
         <v>0.21</v>
       </c>
       <c r="N91" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O91" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R91" s="12" t="str">
@@ -13022,35 +13034,35 @@
         <v>50</v>
       </c>
       <c r="AE91" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF91" s="13">
         <v>0.21</v>
       </c>
       <c r="AG91" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH91" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL91" t="str">
-        <f>IF($B91="GWE_Item",IF($AI91="Elektra",SUMIFS($W:$W,$A:$A,$A91,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A91,$B:$B,"GWE"),IF($AI91="Gas",SUMIFS($Y:$Y,$A:$A,$A91,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A91,$B:$B,"GWE"),IF($AI91="Water",SUMIFS($AA:$AA,$A:$A,$A91,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A91,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN91" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO91" s="13"/>
       <c r="AP91" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ91" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -13077,11 +13089,11 @@
         <v>0.21</v>
       </c>
       <c r="N92" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="O92" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R92" s="12" t="str">
@@ -13092,35 +13104,35 @@
         <v>50</v>
       </c>
       <c r="AE92" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AF92" s="13">
         <v>0.21</v>
       </c>
       <c r="AG92" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH92" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AL92" t="str">
-        <f>IF($B92="GWE_Item",IF($AI92="Elektra",SUMIFS($W:$W,$A:$A,$A92,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A92,$B:$B,"GWE"),IF($AI92="Gas",SUMIFS($Y:$Y,$A:$A,$A92,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A92,$B:$B,"GWE"),IF($AI92="Water",SUMIFS($AA:$AA,$A:$A,$A92,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A92,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN92" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AO92" s="13"/>
       <c r="AP92" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AQ92" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -13147,11 +13159,11 @@
         <v>0.21</v>
       </c>
       <c r="N93" s="11" t="e">
-        <f t="shared" ref="N93:N124" si="31">L93 * (1 + M93)</f>
+        <f t="shared" ref="N93:N124" si="34">L93 * (1 + M93)</f>
         <v>#VALUE!</v>
       </c>
       <c r="O93" s="11">
-        <f t="shared" ref="O93:O124" si="32">IF(K93="Eigen Beheer",0,IF(AND(ISNUMBER(N93),I93&lt;&gt;"",H93&lt;&gt;""),YEARFRAC(H93,I93,4)*12*N93,0))</f>
+        <f t="shared" ref="O93:O124" si="35">IF(K93="Eigen Beheer",0,IF(AND(ISNUMBER(N93),I93&lt;&gt;"",H93&lt;&gt;""),YEARFRAC(H93,I93,4)*12*N93,0))</f>
         <v>0</v>
       </c>
       <c r="R93" s="12" t="str">
@@ -13162,35 +13174,35 @@
         <v>50</v>
       </c>
       <c r="AE93" s="11" t="str">
-        <f t="shared" ref="AE93:AE124" si="33">IF(AB93="","",IF(ISNUMBER(SEARCH("Basis",AB93)),(250/1.21)+MAX(0,AC93-5)*AD93,IF(ISNUMBER(SEARCH("Intensief",AB93)),(375/1.21)+MAX(0,AC93-7)*AD93,AC93*AD93)))</f>
+        <f t="shared" ref="AE93:AE124" si="36">IF(AB93="","",IF(ISNUMBER(SEARCH("Basis",AB93)),(250/1.21)+MAX(0,AC93-5)*AD93,IF(ISNUMBER(SEARCH("Intensief",AB93)),(375/1.21)+MAX(0,AC93-7)*AD93,AC93*AD93)))</f>
         <v/>
       </c>
       <c r="AF93" s="13">
         <v>0.21</v>
       </c>
       <c r="AG93" s="11" t="str">
-        <f t="shared" ref="AG93:AG124" si="34">IF(AE93&lt;&gt;"",AE93*AF93,"")</f>
+        <f t="shared" ref="AG93:AG124" si="37">IF(AE93&lt;&gt;"",AE93*AF93,"")</f>
         <v/>
       </c>
       <c r="AH93" s="11" t="str">
-        <f t="shared" ref="AH93:AH124" si="35">IF(AE93&lt;&gt;"",AE93+AG93,"")</f>
+        <f t="shared" ref="AH93:AH124" si="38">IF(AE93&lt;&gt;"",AE93+AG93,"")</f>
         <v/>
       </c>
       <c r="AL93" t="str">
-        <f>IF($B93="GWE_Item",IF($AI93="Elektra",SUMIFS($W:$W,$A:$A,$A93,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A93,$B:$B,"GWE"),IF($AI93="Gas",SUMIFS($Y:$Y,$A:$A,$A93,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A93,$B:$B,"GWE"),IF($AI93="Water",SUMIFS($AA:$AA,$A:$A,$A93,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A93,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AN93" s="11" t="str">
-        <f t="shared" ref="AN93:AN124" si="36">IF(AND(AL93&lt;&gt;"",AM93&lt;&gt;""),AL93*AM93,"")</f>
+        <f t="shared" ref="AN93:AN124" si="39">IF(AND(AL93&lt;&gt;"",AM93&lt;&gt;""),AL93*AM93,"")</f>
         <v/>
       </c>
       <c r="AO93" s="13"/>
       <c r="AP93" s="11" t="str">
-        <f t="shared" ref="AP93:AP124" si="37">IF(AND(AN93&lt;&gt;"",AO93&lt;&gt;""),AN93*AO93,"")</f>
+        <f t="shared" ref="AP93:AP124" si="40">IF(AND(AN93&lt;&gt;"",AO93&lt;&gt;""),AN93*AO93,"")</f>
         <v/>
       </c>
       <c r="AQ93" s="11" t="str">
-        <f t="shared" ref="AQ93:AQ124" si="38">IF(AND(AN93&lt;&gt;"",AP93&lt;&gt;""),AN93+AP93,"")</f>
+        <f t="shared" ref="AQ93:AQ124" si="41">IF(AND(AN93&lt;&gt;"",AP93&lt;&gt;""),AN93+AP93,"")</f>
         <v/>
       </c>
     </row>
@@ -13217,11 +13229,11 @@
         <v>0.21</v>
       </c>
       <c r="N94" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O94" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R94" s="12" t="str">
@@ -13232,35 +13244,35 @@
         <v>50</v>
       </c>
       <c r="AE94" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AF94" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="AG94" s="11" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AH94" s="11" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AL94" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AF94" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="AG94" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH94" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AL94" t="str">
-        <f>IF($B94="GWE_Item",IF($AI94="Elektra",SUMIFS($W:$W,$A:$A,$A94,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A94,$B:$B,"GWE"),IF($AI94="Gas",SUMIFS($Y:$Y,$A:$A,$A94,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A94,$B:$B,"GWE"),IF($AI94="Water",SUMIFS($AA:$AA,$A:$A,$A94,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A94,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN94" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO94" s="13"/>
       <c r="AP94" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ94" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -13287,11 +13299,11 @@
         <v>0.21</v>
       </c>
       <c r="N95" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O95" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R95" s="12" t="str">
@@ -13302,35 +13314,35 @@
         <v>50</v>
       </c>
       <c r="AE95" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AF95" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="AG95" s="11" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AH95" s="11" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AL95" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AF95" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="AG95" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH95" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AL95" t="str">
-        <f>IF($B95="GWE_Item",IF($AI95="Elektra",SUMIFS($W:$W,$A:$A,$A95,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A95,$B:$B,"GWE"),IF($AI95="Gas",SUMIFS($Y:$Y,$A:$A,$A95,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A95,$B:$B,"GWE"),IF($AI95="Water",SUMIFS($AA:$AA,$A:$A,$A95,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A95,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN95" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO95" s="13"/>
       <c r="AP95" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ95" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -13357,11 +13369,11 @@
         <v>0.21</v>
       </c>
       <c r="N96" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O96" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R96" s="12" t="str">
@@ -13372,35 +13384,35 @@
         <v>50</v>
       </c>
       <c r="AE96" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AF96" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="AG96" s="11" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AH96" s="11" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AL96" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AF96" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="AG96" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH96" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AL96" t="str">
-        <f>IF($B96="GWE_Item",IF($AI96="Elektra",SUMIFS($W:$W,$A:$A,$A96,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A96,$B:$B,"GWE"),IF($AI96="Gas",SUMIFS($Y:$Y,$A:$A,$A96,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A96,$B:$B,"GWE"),IF($AI96="Water",SUMIFS($AA:$AA,$A:$A,$A96,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A96,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN96" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO96" s="13"/>
       <c r="AP96" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ96" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -13427,11 +13439,11 @@
         <v>0.21</v>
       </c>
       <c r="N97" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O97" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R97" s="12" t="str">
@@ -13442,35 +13454,35 @@
         <v>50</v>
       </c>
       <c r="AE97" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AF97" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="AG97" s="11" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AH97" s="11" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AL97" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AF97" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="AG97" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH97" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AL97" t="str">
-        <f>IF($B97="GWE_Item",IF($AI97="Elektra",SUMIFS($W:$W,$A:$A,$A97,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A97,$B:$B,"GWE"),IF($AI97="Gas",SUMIFS($Y:$Y,$A:$A,$A97,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A97,$B:$B,"GWE"),IF($AI97="Water",SUMIFS($AA:$AA,$A:$A,$A97,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A97,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN97" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO97" s="13"/>
       <c r="AP97" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ97" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -13497,11 +13509,11 @@
         <v>0.21</v>
       </c>
       <c r="N98" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O98" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R98" s="12" t="str">
@@ -13512,35 +13524,35 @@
         <v>50</v>
       </c>
       <c r="AE98" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AF98" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="AG98" s="11" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AH98" s="11" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AL98" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AF98" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="AG98" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH98" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AL98" t="str">
-        <f>IF($B98="GWE_Item",IF($AI98="Elektra",SUMIFS($W:$W,$A:$A,$A98,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A98,$B:$B,"GWE"),IF($AI98="Gas",SUMIFS($Y:$Y,$A:$A,$A98,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A98,$B:$B,"GWE"),IF($AI98="Water",SUMIFS($AA:$AA,$A:$A,$A98,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A98,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN98" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO98" s="13"/>
       <c r="AP98" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ98" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -13567,11 +13579,11 @@
         <v>0.21</v>
       </c>
       <c r="N99" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O99" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R99" s="12" t="str">
@@ -13582,35 +13594,35 @@
         <v>50</v>
       </c>
       <c r="AE99" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AF99" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="AG99" s="11" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AH99" s="11" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AL99" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AF99" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="AG99" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH99" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AL99" t="str">
-        <f>IF($B99="GWE_Item",IF($AI99="Elektra",SUMIFS($W:$W,$A:$A,$A99,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A99,$B:$B,"GWE"),IF($AI99="Gas",SUMIFS($Y:$Y,$A:$A,$A99,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A99,$B:$B,"GWE"),IF($AI99="Water",SUMIFS($AA:$AA,$A:$A,$A99,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A99,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN99" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO99" s="13"/>
       <c r="AP99" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ99" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -13637,11 +13649,11 @@
         <v>0.21</v>
       </c>
       <c r="N100" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O100" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R100" s="12" t="str">
@@ -13652,35 +13664,35 @@
         <v>50</v>
       </c>
       <c r="AE100" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AF100" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="AG100" s="11" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AH100" s="11" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AL100" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AF100" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="AG100" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH100" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AL100" t="str">
-        <f>IF($B100="GWE_Item",IF($AI100="Elektra",SUMIFS($W:$W,$A:$A,$A100,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A100,$B:$B,"GWE"),IF($AI100="Gas",SUMIFS($Y:$Y,$A:$A,$A100,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A100,$B:$B,"GWE"),IF($AI100="Water",SUMIFS($AA:$AA,$A:$A,$A100,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A100,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN100" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO100" s="13"/>
       <c r="AP100" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ100" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -13707,11 +13719,11 @@
         <v>0.21</v>
       </c>
       <c r="N101" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O101" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R101" s="12" t="str">
@@ -13722,35 +13734,35 @@
         <v>50</v>
       </c>
       <c r="AE101" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AF101" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="AG101" s="11" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AH101" s="11" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AL101" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AF101" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="AG101" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH101" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AL101" t="str">
-        <f>IF($B101="GWE_Item",IF($AI101="Elektra",SUMIFS($W:$W,$A:$A,$A101,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A101,$B:$B,"GWE"),IF($AI101="Gas",SUMIFS($Y:$Y,$A:$A,$A101,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A101,$B:$B,"GWE"),IF($AI101="Water",SUMIFS($AA:$AA,$A:$A,$A101,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A101,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN101" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO101" s="13"/>
       <c r="AP101" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ101" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -13777,11 +13789,11 @@
         <v>0.21</v>
       </c>
       <c r="N102" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O102" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R102" s="12" t="str">
@@ -13792,35 +13804,35 @@
         <v>50</v>
       </c>
       <c r="AE102" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AF102" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="AG102" s="11" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AH102" s="11" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AL102" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AF102" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="AG102" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH102" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AL102" t="str">
-        <f>IF($B102="GWE_Item",IF($AI102="Elektra",SUMIFS($W:$W,$A:$A,$A102,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A102,$B:$B,"GWE"),IF($AI102="Gas",SUMIFS($Y:$Y,$A:$A,$A102,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A102,$B:$B,"GWE"),IF($AI102="Water",SUMIFS($AA:$AA,$A:$A,$A102,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A102,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN102" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO102" s="13"/>
       <c r="AP102" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ102" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -13847,11 +13859,11 @@
         <v>0.21</v>
       </c>
       <c r="N103" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O103" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R103" s="12" t="str">
@@ -13862,35 +13874,35 @@
         <v>50</v>
       </c>
       <c r="AE103" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AF103" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="AG103" s="11" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AH103" s="11" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AL103" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AF103" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="AG103" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH103" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AL103" t="str">
-        <f>IF($B103="GWE_Item",IF($AI103="Elektra",SUMIFS($W:$W,$A:$A,$A103,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A103,$B:$B,"GWE"),IF($AI103="Gas",SUMIFS($Y:$Y,$A:$A,$A103,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A103,$B:$B,"GWE"),IF($AI103="Water",SUMIFS($AA:$AA,$A:$A,$A103,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A103,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN103" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO103" s="13"/>
       <c r="AP103" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ103" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -13917,11 +13929,11 @@
         <v>0.21</v>
       </c>
       <c r="N104" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O104" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R104" s="12" t="str">
@@ -13932,35 +13944,35 @@
         <v>50</v>
       </c>
       <c r="AE104" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AF104" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="AG104" s="11" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AH104" s="11" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AL104" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AF104" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="AG104" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH104" s="11" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AL104" t="str">
-        <f>IF($B104="GWE_Item",IF($AI104="Elektra",SUMIFS($W:$W,$A:$A,$A104,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A104,$B:$B,"GWE"),IF($AI104="Gas",SUMIFS($Y:$Y,$A:$A,$A104,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A104,$B:$B,"GWE"),IF($AI104="Water",SUMIFS($AA:$AA,$A:$A,$A104,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A104,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN104" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO104" s="13"/>
       <c r="AP104" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ104" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -13987,11 +13999,11 @@
         <v>0.21</v>
       </c>
       <c r="N105" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O105" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R105" s="12" t="str">
@@ -14002,35 +14014,35 @@
         <v>50</v>
       </c>
       <c r="AE105" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF105" s="13">
         <v>0.21</v>
       </c>
       <c r="AG105" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH105" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL105" t="str">
-        <f>IF($B105="GWE_Item",IF($AI105="Elektra",SUMIFS($W:$W,$A:$A,$A105,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A105,$B:$B,"GWE"),IF($AI105="Gas",SUMIFS($Y:$Y,$A:$A,$A105,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A105,$B:$B,"GWE"),IF($AI105="Water",SUMIFS($AA:$AA,$A:$A,$A105,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A105,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" ref="AL105:AL136" si="42">IF($B105="GWE_Item",IF($AI105="Elektra",SUMIFS($W:$W,$A:$A,$A105,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A105,$B:$B,"GWE"),IF($AI105="Gas",SUMIFS($Y:$Y,$A:$A,$A105,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A105,$B:$B,"GWE"),IF($AI105="Water",SUMIFS($AA:$AA,$A:$A,$A105,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A105,$B:$B,"GWE"),""))),"")</f>
         <v/>
       </c>
       <c r="AN105" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO105" s="13"/>
       <c r="AP105" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ105" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14057,11 +14069,11 @@
         <v>0.21</v>
       </c>
       <c r="N106" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O106" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R106" s="12" t="str">
@@ -14072,35 +14084,35 @@
         <v>50</v>
       </c>
       <c r="AE106" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF106" s="13">
         <v>0.21</v>
       </c>
       <c r="AG106" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH106" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL106" t="str">
-        <f>IF($B106="GWE_Item",IF($AI106="Elektra",SUMIFS($W:$W,$A:$A,$A106,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A106,$B:$B,"GWE"),IF($AI106="Gas",SUMIFS($Y:$Y,$A:$A,$A106,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A106,$B:$B,"GWE"),IF($AI106="Water",SUMIFS($AA:$AA,$A:$A,$A106,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A106,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN106" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO106" s="13"/>
       <c r="AP106" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ106" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14127,11 +14139,11 @@
         <v>0.21</v>
       </c>
       <c r="N107" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O107" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R107" s="12" t="str">
@@ -14142,35 +14154,35 @@
         <v>50</v>
       </c>
       <c r="AE107" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF107" s="13">
         <v>0.21</v>
       </c>
       <c r="AG107" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH107" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL107" t="str">
-        <f>IF($B107="GWE_Item",IF($AI107="Elektra",SUMIFS($W:$W,$A:$A,$A107,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A107,$B:$B,"GWE"),IF($AI107="Gas",SUMIFS($Y:$Y,$A:$A,$A107,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A107,$B:$B,"GWE"),IF($AI107="Water",SUMIFS($AA:$AA,$A:$A,$A107,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A107,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN107" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO107" s="13"/>
       <c r="AP107" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ107" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14197,11 +14209,11 @@
         <v>0.21</v>
       </c>
       <c r="N108" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O108" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R108" s="12" t="str">
@@ -14212,35 +14224,35 @@
         <v>50</v>
       </c>
       <c r="AE108" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF108" s="13">
         <v>0.21</v>
       </c>
       <c r="AG108" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH108" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL108" t="str">
-        <f>IF($B108="GWE_Item",IF($AI108="Elektra",SUMIFS($W:$W,$A:$A,$A108,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A108,$B:$B,"GWE"),IF($AI108="Gas",SUMIFS($Y:$Y,$A:$A,$A108,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A108,$B:$B,"GWE"),IF($AI108="Water",SUMIFS($AA:$AA,$A:$A,$A108,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A108,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN108" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO108" s="13"/>
       <c r="AP108" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ108" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14267,11 +14279,11 @@
         <v>0.21</v>
       </c>
       <c r="N109" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O109" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R109" s="12" t="str">
@@ -14282,35 +14294,35 @@
         <v>50</v>
       </c>
       <c r="AE109" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF109" s="13">
         <v>0.21</v>
       </c>
       <c r="AG109" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH109" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL109" t="str">
-        <f>IF($B109="GWE_Item",IF($AI109="Elektra",SUMIFS($W:$W,$A:$A,$A109,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A109,$B:$B,"GWE"),IF($AI109="Gas",SUMIFS($Y:$Y,$A:$A,$A109,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A109,$B:$B,"GWE"),IF($AI109="Water",SUMIFS($AA:$AA,$A:$A,$A109,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A109,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN109" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO109" s="13"/>
       <c r="AP109" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ109" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14337,11 +14349,11 @@
         <v>0.21</v>
       </c>
       <c r="N110" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O110" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R110" s="12" t="str">
@@ -14352,35 +14364,35 @@
         <v>50</v>
       </c>
       <c r="AE110" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF110" s="13">
         <v>0.21</v>
       </c>
       <c r="AG110" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH110" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL110" t="str">
-        <f>IF($B110="GWE_Item",IF($AI110="Elektra",SUMIFS($W:$W,$A:$A,$A110,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A110,$B:$B,"GWE"),IF($AI110="Gas",SUMIFS($Y:$Y,$A:$A,$A110,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A110,$B:$B,"GWE"),IF($AI110="Water",SUMIFS($AA:$AA,$A:$A,$A110,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A110,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN110" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO110" s="13"/>
       <c r="AP110" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ110" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14407,11 +14419,11 @@
         <v>0.21</v>
       </c>
       <c r="N111" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O111" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R111" s="12" t="str">
@@ -14422,35 +14434,35 @@
         <v>50</v>
       </c>
       <c r="AE111" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF111" s="13">
         <v>0.21</v>
       </c>
       <c r="AG111" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH111" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL111" t="str">
-        <f>IF($B111="GWE_Item",IF($AI111="Elektra",SUMIFS($W:$W,$A:$A,$A111,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A111,$B:$B,"GWE"),IF($AI111="Gas",SUMIFS($Y:$Y,$A:$A,$A111,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A111,$B:$B,"GWE"),IF($AI111="Water",SUMIFS($AA:$AA,$A:$A,$A111,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A111,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN111" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO111" s="13"/>
       <c r="AP111" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ111" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14477,11 +14489,11 @@
         <v>0.21</v>
       </c>
       <c r="N112" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O112" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R112" s="12" t="str">
@@ -14492,35 +14504,35 @@
         <v>50</v>
       </c>
       <c r="AE112" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF112" s="13">
         <v>0.21</v>
       </c>
       <c r="AG112" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH112" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL112" t="str">
-        <f>IF($B112="GWE_Item",IF($AI112="Elektra",SUMIFS($W:$W,$A:$A,$A112,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A112,$B:$B,"GWE"),IF($AI112="Gas",SUMIFS($Y:$Y,$A:$A,$A112,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A112,$B:$B,"GWE"),IF($AI112="Water",SUMIFS($AA:$AA,$A:$A,$A112,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A112,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN112" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO112" s="13"/>
       <c r="AP112" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ112" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14547,11 +14559,11 @@
         <v>0.21</v>
       </c>
       <c r="N113" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O113" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R113" s="12" t="str">
@@ -14562,35 +14574,35 @@
         <v>50</v>
       </c>
       <c r="AE113" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF113" s="13">
         <v>0.21</v>
       </c>
       <c r="AG113" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH113" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL113" t="str">
-        <f>IF($B113="GWE_Item",IF($AI113="Elektra",SUMIFS($W:$W,$A:$A,$A113,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A113,$B:$B,"GWE"),IF($AI113="Gas",SUMIFS($Y:$Y,$A:$A,$A113,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A113,$B:$B,"GWE"),IF($AI113="Water",SUMIFS($AA:$AA,$A:$A,$A113,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A113,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN113" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO113" s="13"/>
       <c r="AP113" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ113" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14617,11 +14629,11 @@
         <v>0.21</v>
       </c>
       <c r="N114" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O114" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R114" s="12" t="str">
@@ -14632,35 +14644,35 @@
         <v>50</v>
       </c>
       <c r="AE114" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF114" s="13">
         <v>0.21</v>
       </c>
       <c r="AG114" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH114" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL114" t="str">
-        <f>IF($B114="GWE_Item",IF($AI114="Elektra",SUMIFS($W:$W,$A:$A,$A114,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A114,$B:$B,"GWE"),IF($AI114="Gas",SUMIFS($Y:$Y,$A:$A,$A114,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A114,$B:$B,"GWE"),IF($AI114="Water",SUMIFS($AA:$AA,$A:$A,$A114,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A114,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN114" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO114" s="13"/>
       <c r="AP114" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ114" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14687,11 +14699,11 @@
         <v>0.21</v>
       </c>
       <c r="N115" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O115" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R115" s="12" t="str">
@@ -14702,35 +14714,35 @@
         <v>50</v>
       </c>
       <c r="AE115" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF115" s="13">
         <v>0.21</v>
       </c>
       <c r="AG115" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH115" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL115" t="str">
-        <f>IF($B115="GWE_Item",IF($AI115="Elektra",SUMIFS($W:$W,$A:$A,$A115,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A115,$B:$B,"GWE"),IF($AI115="Gas",SUMIFS($Y:$Y,$A:$A,$A115,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A115,$B:$B,"GWE"),IF($AI115="Water",SUMIFS($AA:$AA,$A:$A,$A115,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A115,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN115" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO115" s="13"/>
       <c r="AP115" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ115" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14757,11 +14769,11 @@
         <v>0.21</v>
       </c>
       <c r="N116" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O116" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R116" s="12" t="str">
@@ -14772,35 +14784,35 @@
         <v>50</v>
       </c>
       <c r="AE116" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF116" s="13">
         <v>0.21</v>
       </c>
       <c r="AG116" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH116" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL116" t="str">
-        <f>IF($B116="GWE_Item",IF($AI116="Elektra",SUMIFS($W:$W,$A:$A,$A116,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A116,$B:$B,"GWE"),IF($AI116="Gas",SUMIFS($Y:$Y,$A:$A,$A116,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A116,$B:$B,"GWE"),IF($AI116="Water",SUMIFS($AA:$AA,$A:$A,$A116,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A116,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN116" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO116" s="13"/>
       <c r="AP116" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ116" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14827,11 +14839,11 @@
         <v>0.21</v>
       </c>
       <c r="N117" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O117" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R117" s="12" t="str">
@@ -14842,35 +14854,35 @@
         <v>50</v>
       </c>
       <c r="AE117" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF117" s="13">
         <v>0.21</v>
       </c>
       <c r="AG117" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH117" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL117" t="str">
-        <f>IF($B117="GWE_Item",IF($AI117="Elektra",SUMIFS($W:$W,$A:$A,$A117,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A117,$B:$B,"GWE"),IF($AI117="Gas",SUMIFS($Y:$Y,$A:$A,$A117,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A117,$B:$B,"GWE"),IF($AI117="Water",SUMIFS($AA:$AA,$A:$A,$A117,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A117,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN117" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO117" s="13"/>
       <c r="AP117" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ117" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14897,11 +14909,11 @@
         <v>0.21</v>
       </c>
       <c r="N118" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O118" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R118" s="12" t="str">
@@ -14912,35 +14924,35 @@
         <v>50</v>
       </c>
       <c r="AE118" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF118" s="13">
         <v>0.21</v>
       </c>
       <c r="AG118" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH118" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL118" t="str">
-        <f>IF($B118="GWE_Item",IF($AI118="Elektra",SUMIFS($W:$W,$A:$A,$A118,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A118,$B:$B,"GWE"),IF($AI118="Gas",SUMIFS($Y:$Y,$A:$A,$A118,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A118,$B:$B,"GWE"),IF($AI118="Water",SUMIFS($AA:$AA,$A:$A,$A118,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A118,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN118" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO118" s="13"/>
       <c r="AP118" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ118" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -14967,11 +14979,11 @@
         <v>0.21</v>
       </c>
       <c r="N119" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O119" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R119" s="12" t="str">
@@ -14982,35 +14994,35 @@
         <v>50</v>
       </c>
       <c r="AE119" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF119" s="13">
         <v>0.21</v>
       </c>
       <c r="AG119" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH119" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL119" t="str">
-        <f>IF($B119="GWE_Item",IF($AI119="Elektra",SUMIFS($W:$W,$A:$A,$A119,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A119,$B:$B,"GWE"),IF($AI119="Gas",SUMIFS($Y:$Y,$A:$A,$A119,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A119,$B:$B,"GWE"),IF($AI119="Water",SUMIFS($AA:$AA,$A:$A,$A119,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A119,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN119" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO119" s="13"/>
       <c r="AP119" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ119" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -15037,11 +15049,11 @@
         <v>0.21</v>
       </c>
       <c r="N120" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O120" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R120" s="12" t="str">
@@ -15052,35 +15064,35 @@
         <v>50</v>
       </c>
       <c r="AE120" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF120" s="13">
         <v>0.21</v>
       </c>
       <c r="AG120" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH120" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL120" t="str">
-        <f>IF($B120="GWE_Item",IF($AI120="Elektra",SUMIFS($W:$W,$A:$A,$A120,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A120,$B:$B,"GWE"),IF($AI120="Gas",SUMIFS($Y:$Y,$A:$A,$A120,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A120,$B:$B,"GWE"),IF($AI120="Water",SUMIFS($AA:$AA,$A:$A,$A120,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A120,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN120" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO120" s="13"/>
       <c r="AP120" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ120" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -15107,11 +15119,11 @@
         <v>0.21</v>
       </c>
       <c r="N121" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O121" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R121" s="12" t="str">
@@ -15122,35 +15134,35 @@
         <v>50</v>
       </c>
       <c r="AE121" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF121" s="13">
         <v>0.21</v>
       </c>
       <c r="AG121" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH121" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL121" t="str">
-        <f>IF($B121="GWE_Item",IF($AI121="Elektra",SUMIFS($W:$W,$A:$A,$A121,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A121,$B:$B,"GWE"),IF($AI121="Gas",SUMIFS($Y:$Y,$A:$A,$A121,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A121,$B:$B,"GWE"),IF($AI121="Water",SUMIFS($AA:$AA,$A:$A,$A121,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A121,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN121" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO121" s="13"/>
       <c r="AP121" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ121" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -15177,11 +15189,11 @@
         <v>0.21</v>
       </c>
       <c r="N122" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O122" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R122" s="12" t="str">
@@ -15192,35 +15204,35 @@
         <v>50</v>
       </c>
       <c r="AE122" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF122" s="13">
         <v>0.21</v>
       </c>
       <c r="AG122" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH122" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL122" t="str">
-        <f>IF($B122="GWE_Item",IF($AI122="Elektra",SUMIFS($W:$W,$A:$A,$A122,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A122,$B:$B,"GWE"),IF($AI122="Gas",SUMIFS($Y:$Y,$A:$A,$A122,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A122,$B:$B,"GWE"),IF($AI122="Water",SUMIFS($AA:$AA,$A:$A,$A122,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A122,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN122" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO122" s="13"/>
       <c r="AP122" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ122" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -15247,11 +15259,11 @@
         <v>0.21</v>
       </c>
       <c r="N123" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O123" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R123" s="12" t="str">
@@ -15262,35 +15274,35 @@
         <v>50</v>
       </c>
       <c r="AE123" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF123" s="13">
         <v>0.21</v>
       </c>
       <c r="AG123" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH123" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL123" t="str">
-        <f>IF($B123="GWE_Item",IF($AI123="Elektra",SUMIFS($W:$W,$A:$A,$A123,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A123,$B:$B,"GWE"),IF($AI123="Gas",SUMIFS($Y:$Y,$A:$A,$A123,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A123,$B:$B,"GWE"),IF($AI123="Water",SUMIFS($AA:$AA,$A:$A,$A123,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A123,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN123" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO123" s="13"/>
       <c r="AP123" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ123" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -15317,11 +15329,11 @@
         <v>0.21</v>
       </c>
       <c r="N124" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O124" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R124" s="12" t="str">
@@ -15332,35 +15344,35 @@
         <v>50</v>
       </c>
       <c r="AE124" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF124" s="13">
         <v>0.21</v>
       </c>
       <c r="AG124" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AH124" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AL124" t="str">
-        <f>IF($B124="GWE_Item",IF($AI124="Elektra",SUMIFS($W:$W,$A:$A,$A124,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A124,$B:$B,"GWE"),IF($AI124="Gas",SUMIFS($Y:$Y,$A:$A,$A124,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A124,$B:$B,"GWE"),IF($AI124="Water",SUMIFS($AA:$AA,$A:$A,$A124,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A124,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN124" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AO124" s="13"/>
       <c r="AP124" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AQ124" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
@@ -15387,11 +15399,11 @@
         <v>0.21</v>
       </c>
       <c r="N125" s="11" t="e">
-        <f t="shared" ref="N125:N156" si="39">L125 * (1 + M125)</f>
+        <f t="shared" ref="N125:N156" si="43">L125 * (1 + M125)</f>
         <v>#VALUE!</v>
       </c>
       <c r="O125" s="11">
-        <f t="shared" ref="O125:O156" si="40">IF(K125="Eigen Beheer",0,IF(AND(ISNUMBER(N125),I125&lt;&gt;"",H125&lt;&gt;""),YEARFRAC(H125,I125,4)*12*N125,0))</f>
+        <f t="shared" ref="O125:O156" si="44">IF(K125="Eigen Beheer",0,IF(AND(ISNUMBER(N125),I125&lt;&gt;"",H125&lt;&gt;""),YEARFRAC(H125,I125,4)*12*N125,0))</f>
         <v>0</v>
       </c>
       <c r="R125" s="12" t="str">
@@ -15402,35 +15414,35 @@
         <v>50</v>
       </c>
       <c r="AE125" s="11" t="str">
-        <f t="shared" ref="AE125:AE156" si="41">IF(AB125="","",IF(ISNUMBER(SEARCH("Basis",AB125)),(250/1.21)+MAX(0,AC125-5)*AD125,IF(ISNUMBER(SEARCH("Intensief",AB125)),(375/1.21)+MAX(0,AC125-7)*AD125,AC125*AD125)))</f>
+        <f t="shared" ref="AE125:AE156" si="45">IF(AB125="","",IF(ISNUMBER(SEARCH("Basis",AB125)),(250/1.21)+MAX(0,AC125-5)*AD125,IF(ISNUMBER(SEARCH("Intensief",AB125)),(375/1.21)+MAX(0,AC125-7)*AD125,AC125*AD125)))</f>
         <v/>
       </c>
       <c r="AF125" s="13">
         <v>0.21</v>
       </c>
       <c r="AG125" s="11" t="str">
-        <f t="shared" ref="AG125:AG156" si="42">IF(AE125&lt;&gt;"",AE125*AF125,"")</f>
+        <f t="shared" ref="AG125:AG156" si="46">IF(AE125&lt;&gt;"",AE125*AF125,"")</f>
         <v/>
       </c>
       <c r="AH125" s="11" t="str">
-        <f t="shared" ref="AH125:AH156" si="43">IF(AE125&lt;&gt;"",AE125+AG125,"")</f>
+        <f t="shared" ref="AH125:AH156" si="47">IF(AE125&lt;&gt;"",AE125+AG125,"")</f>
         <v/>
       </c>
       <c r="AL125" t="str">
-        <f>IF($B125="GWE_Item",IF($AI125="Elektra",SUMIFS($W:$W,$A:$A,$A125,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A125,$B:$B,"GWE"),IF($AI125="Gas",SUMIFS($Y:$Y,$A:$A,$A125,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A125,$B:$B,"GWE"),IF($AI125="Water",SUMIFS($AA:$AA,$A:$A,$A125,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A125,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AN125" s="11" t="str">
-        <f t="shared" ref="AN125:AN156" si="44">IF(AND(AL125&lt;&gt;"",AM125&lt;&gt;""),AL125*AM125,"")</f>
+        <f t="shared" ref="AN125:AN156" si="48">IF(AND(AL125&lt;&gt;"",AM125&lt;&gt;""),AL125*AM125,"")</f>
         <v/>
       </c>
       <c r="AO125" s="13"/>
       <c r="AP125" s="11" t="str">
-        <f t="shared" ref="AP125:AP156" si="45">IF(AND(AN125&lt;&gt;"",AO125&lt;&gt;""),AN125*AO125,"")</f>
+        <f t="shared" ref="AP125:AP156" si="49">IF(AND(AN125&lt;&gt;"",AO125&lt;&gt;""),AN125*AO125,"")</f>
         <v/>
       </c>
       <c r="AQ125" s="11" t="str">
-        <f t="shared" ref="AQ125:AQ156" si="46">IF(AND(AN125&lt;&gt;"",AP125&lt;&gt;""),AN125+AP125,"")</f>
+        <f t="shared" ref="AQ125:AQ156" si="50">IF(AND(AN125&lt;&gt;"",AP125&lt;&gt;""),AN125+AP125,"")</f>
         <v/>
       </c>
     </row>
@@ -15457,11 +15469,11 @@
         <v>0.21</v>
       </c>
       <c r="N126" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O126" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R126" s="12" t="str">
@@ -15472,35 +15484,35 @@
         <v>50</v>
       </c>
       <c r="AE126" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF126" s="13">
         <v>0.21</v>
       </c>
       <c r="AG126" s="11" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AH126" s="11" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AL126" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AH126" s="11" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL126" t="str">
-        <f>IF($B126="GWE_Item",IF($AI126="Elektra",SUMIFS($W:$W,$A:$A,$A126,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A126,$B:$B,"GWE"),IF($AI126="Gas",SUMIFS($Y:$Y,$A:$A,$A126,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A126,$B:$B,"GWE"),IF($AI126="Water",SUMIFS($AA:$AA,$A:$A,$A126,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A126,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN126" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO126" s="13"/>
       <c r="AP126" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ126" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -15527,11 +15539,11 @@
         <v>0.21</v>
       </c>
       <c r="N127" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O127" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R127" s="12" t="str">
@@ -15542,35 +15554,35 @@
         <v>50</v>
       </c>
       <c r="AE127" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF127" s="13">
         <v>0.21</v>
       </c>
       <c r="AG127" s="11" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AH127" s="11" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AL127" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AH127" s="11" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL127" t="str">
-        <f>IF($B127="GWE_Item",IF($AI127="Elektra",SUMIFS($W:$W,$A:$A,$A127,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A127,$B:$B,"GWE"),IF($AI127="Gas",SUMIFS($Y:$Y,$A:$A,$A127,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A127,$B:$B,"GWE"),IF($AI127="Water",SUMIFS($AA:$AA,$A:$A,$A127,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A127,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN127" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO127" s="13"/>
       <c r="AP127" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ127" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -15597,11 +15609,11 @@
         <v>0.21</v>
       </c>
       <c r="N128" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O128" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R128" s="12" t="str">
@@ -15612,35 +15624,35 @@
         <v>50</v>
       </c>
       <c r="AE128" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF128" s="13">
         <v>0.21</v>
       </c>
       <c r="AG128" s="11" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AH128" s="11" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AL128" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AH128" s="11" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL128" t="str">
-        <f>IF($B128="GWE_Item",IF($AI128="Elektra",SUMIFS($W:$W,$A:$A,$A128,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A128,$B:$B,"GWE"),IF($AI128="Gas",SUMIFS($Y:$Y,$A:$A,$A128,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A128,$B:$B,"GWE"),IF($AI128="Water",SUMIFS($AA:$AA,$A:$A,$A128,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A128,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN128" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO128" s="13"/>
       <c r="AP128" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ128" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -15667,11 +15679,11 @@
         <v>0.21</v>
       </c>
       <c r="N129" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O129" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R129" s="12" t="str">
@@ -15682,35 +15694,35 @@
         <v>50</v>
       </c>
       <c r="AE129" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF129" s="13">
         <v>0.21</v>
       </c>
       <c r="AG129" s="11" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AH129" s="11" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AL129" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AH129" s="11" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL129" t="str">
-        <f>IF($B129="GWE_Item",IF($AI129="Elektra",SUMIFS($W:$W,$A:$A,$A129,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A129,$B:$B,"GWE"),IF($AI129="Gas",SUMIFS($Y:$Y,$A:$A,$A129,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A129,$B:$B,"GWE"),IF($AI129="Water",SUMIFS($AA:$AA,$A:$A,$A129,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A129,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN129" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO129" s="13"/>
       <c r="AP129" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ129" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -15737,11 +15749,11 @@
         <v>0.21</v>
       </c>
       <c r="N130" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O130" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R130" s="12" t="str">
@@ -15752,35 +15764,35 @@
         <v>50</v>
       </c>
       <c r="AE130" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF130" s="13">
         <v>0.21</v>
       </c>
       <c r="AG130" s="11" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AH130" s="11" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AL130" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AH130" s="11" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL130" t="str">
-        <f>IF($B130="GWE_Item",IF($AI130="Elektra",SUMIFS($W:$W,$A:$A,$A130,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A130,$B:$B,"GWE"),IF($AI130="Gas",SUMIFS($Y:$Y,$A:$A,$A130,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A130,$B:$B,"GWE"),IF($AI130="Water",SUMIFS($AA:$AA,$A:$A,$A130,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A130,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN130" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO130" s="13"/>
       <c r="AP130" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ130" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -15807,11 +15819,11 @@
         <v>0.21</v>
       </c>
       <c r="N131" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O131" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R131" s="12" t="str">
@@ -15822,35 +15834,35 @@
         <v>50</v>
       </c>
       <c r="AE131" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF131" s="13">
         <v>0.21</v>
       </c>
       <c r="AG131" s="11" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AH131" s="11" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AL131" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AH131" s="11" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL131" t="str">
-        <f>IF($B131="GWE_Item",IF($AI131="Elektra",SUMIFS($W:$W,$A:$A,$A131,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A131,$B:$B,"GWE"),IF($AI131="Gas",SUMIFS($Y:$Y,$A:$A,$A131,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A131,$B:$B,"GWE"),IF($AI131="Water",SUMIFS($AA:$AA,$A:$A,$A131,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A131,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN131" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO131" s="13"/>
       <c r="AP131" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ131" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -15877,11 +15889,11 @@
         <v>0.21</v>
       </c>
       <c r="N132" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O132" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R132" s="12" t="str">
@@ -15892,35 +15904,35 @@
         <v>50</v>
       </c>
       <c r="AE132" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF132" s="13">
         <v>0.21</v>
       </c>
       <c r="AG132" s="11" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AH132" s="11" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AL132" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AH132" s="11" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL132" t="str">
-        <f>IF($B132="GWE_Item",IF($AI132="Elektra",SUMIFS($W:$W,$A:$A,$A132,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A132,$B:$B,"GWE"),IF($AI132="Gas",SUMIFS($Y:$Y,$A:$A,$A132,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A132,$B:$B,"GWE"),IF($AI132="Water",SUMIFS($AA:$AA,$A:$A,$A132,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A132,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN132" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO132" s="13"/>
       <c r="AP132" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ132" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -15947,11 +15959,11 @@
         <v>0.21</v>
       </c>
       <c r="N133" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O133" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R133" s="12" t="str">
@@ -15962,35 +15974,35 @@
         <v>50</v>
       </c>
       <c r="AE133" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF133" s="13">
         <v>0.21</v>
       </c>
       <c r="AG133" s="11" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AH133" s="11" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AL133" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AH133" s="11" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL133" t="str">
-        <f>IF($B133="GWE_Item",IF($AI133="Elektra",SUMIFS($W:$W,$A:$A,$A133,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A133,$B:$B,"GWE"),IF($AI133="Gas",SUMIFS($Y:$Y,$A:$A,$A133,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A133,$B:$B,"GWE"),IF($AI133="Water",SUMIFS($AA:$AA,$A:$A,$A133,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A133,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN133" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO133" s="13"/>
       <c r="AP133" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ133" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16017,11 +16029,11 @@
         <v>0.21</v>
       </c>
       <c r="N134" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O134" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R134" s="12" t="str">
@@ -16032,35 +16044,35 @@
         <v>50</v>
       </c>
       <c r="AE134" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF134" s="13">
         <v>0.21</v>
       </c>
       <c r="AG134" s="11" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AH134" s="11" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AL134" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AH134" s="11" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL134" t="str">
-        <f>IF($B134="GWE_Item",IF($AI134="Elektra",SUMIFS($W:$W,$A:$A,$A134,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A134,$B:$B,"GWE"),IF($AI134="Gas",SUMIFS($Y:$Y,$A:$A,$A134,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A134,$B:$B,"GWE"),IF($AI134="Water",SUMIFS($AA:$AA,$A:$A,$A134,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A134,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN134" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO134" s="13"/>
       <c r="AP134" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ134" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16087,11 +16099,11 @@
         <v>0.21</v>
       </c>
       <c r="N135" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O135" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R135" s="12" t="str">
@@ -16102,35 +16114,35 @@
         <v>50</v>
       </c>
       <c r="AE135" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF135" s="13">
         <v>0.21</v>
       </c>
       <c r="AG135" s="11" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AH135" s="11" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AL135" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AH135" s="11" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL135" t="str">
-        <f>IF($B135="GWE_Item",IF($AI135="Elektra",SUMIFS($W:$W,$A:$A,$A135,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A135,$B:$B,"GWE"),IF($AI135="Gas",SUMIFS($Y:$Y,$A:$A,$A135,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A135,$B:$B,"GWE"),IF($AI135="Water",SUMIFS($AA:$AA,$A:$A,$A135,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A135,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN135" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO135" s="13"/>
       <c r="AP135" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ135" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16157,11 +16169,11 @@
         <v>0.21</v>
       </c>
       <c r="N136" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O136" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R136" s="12" t="str">
@@ -16172,35 +16184,35 @@
         <v>50</v>
       </c>
       <c r="AE136" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF136" s="13">
         <v>0.21</v>
       </c>
       <c r="AG136" s="11" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AH136" s="11" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AL136" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AH136" s="11" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AL136" t="str">
-        <f>IF($B136="GWE_Item",IF($AI136="Elektra",SUMIFS($W:$W,$A:$A,$A136,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A136,$B:$B,"GWE"),IF($AI136="Gas",SUMIFS($Y:$Y,$A:$A,$A136,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A136,$B:$B,"GWE"),IF($AI136="Water",SUMIFS($AA:$AA,$A:$A,$A136,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A136,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN136" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO136" s="13"/>
       <c r="AP136" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ136" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16227,11 +16239,11 @@
         <v>0.21</v>
       </c>
       <c r="N137" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O137" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R137" s="12" t="str">
@@ -16242,35 +16254,35 @@
         <v>50</v>
       </c>
       <c r="AE137" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF137" s="13">
         <v>0.21</v>
       </c>
       <c r="AG137" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH137" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL137" t="str">
-        <f>IF($B137="GWE_Item",IF($AI137="Elektra",SUMIFS($W:$W,$A:$A,$A137,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A137,$B:$B,"GWE"),IF($AI137="Gas",SUMIFS($Y:$Y,$A:$A,$A137,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A137,$B:$B,"GWE"),IF($AI137="Water",SUMIFS($AA:$AA,$A:$A,$A137,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A137,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" ref="AL137:AL168" si="51">IF($B137="GWE_Item",IF($AI137="Elektra",SUMIFS($W:$W,$A:$A,$A137,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A137,$B:$B,"GWE"),IF($AI137="Gas",SUMIFS($Y:$Y,$A:$A,$A137,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A137,$B:$B,"GWE"),IF($AI137="Water",SUMIFS($AA:$AA,$A:$A,$A137,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A137,$B:$B,"GWE"),""))),"")</f>
         <v/>
       </c>
       <c r="AN137" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO137" s="13"/>
       <c r="AP137" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ137" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16297,11 +16309,11 @@
         <v>0.21</v>
       </c>
       <c r="N138" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O138" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R138" s="12" t="str">
@@ -16312,35 +16324,35 @@
         <v>50</v>
       </c>
       <c r="AE138" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF138" s="13">
         <v>0.21</v>
       </c>
       <c r="AG138" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH138" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL138" t="str">
-        <f>IF($B138="GWE_Item",IF($AI138="Elektra",SUMIFS($W:$W,$A:$A,$A138,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A138,$B:$B,"GWE"),IF($AI138="Gas",SUMIFS($Y:$Y,$A:$A,$A138,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A138,$B:$B,"GWE"),IF($AI138="Water",SUMIFS($AA:$AA,$A:$A,$A138,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A138,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN138" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO138" s="13"/>
       <c r="AP138" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ138" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16367,11 +16379,11 @@
         <v>0.21</v>
       </c>
       <c r="N139" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O139" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R139" s="12" t="str">
@@ -16382,35 +16394,35 @@
         <v>50</v>
       </c>
       <c r="AE139" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF139" s="13">
         <v>0.21</v>
       </c>
       <c r="AG139" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH139" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL139" t="str">
-        <f>IF($B139="GWE_Item",IF($AI139="Elektra",SUMIFS($W:$W,$A:$A,$A139,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A139,$B:$B,"GWE"),IF($AI139="Gas",SUMIFS($Y:$Y,$A:$A,$A139,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A139,$B:$B,"GWE"),IF($AI139="Water",SUMIFS($AA:$AA,$A:$A,$A139,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A139,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN139" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO139" s="13"/>
       <c r="AP139" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ139" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16437,11 +16449,11 @@
         <v>0.21</v>
       </c>
       <c r="N140" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O140" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R140" s="12" t="str">
@@ -16452,35 +16464,35 @@
         <v>50</v>
       </c>
       <c r="AE140" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF140" s="13">
         <v>0.21</v>
       </c>
       <c r="AG140" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH140" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL140" t="str">
-        <f>IF($B140="GWE_Item",IF($AI140="Elektra",SUMIFS($W:$W,$A:$A,$A140,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A140,$B:$B,"GWE"),IF($AI140="Gas",SUMIFS($Y:$Y,$A:$A,$A140,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A140,$B:$B,"GWE"),IF($AI140="Water",SUMIFS($AA:$AA,$A:$A,$A140,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A140,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN140" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO140" s="13"/>
       <c r="AP140" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ140" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16507,11 +16519,11 @@
         <v>0.21</v>
       </c>
       <c r="N141" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O141" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R141" s="12" t="str">
@@ -16522,35 +16534,35 @@
         <v>50</v>
       </c>
       <c r="AE141" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF141" s="13">
         <v>0.21</v>
       </c>
       <c r="AG141" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH141" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL141" t="str">
-        <f>IF($B141="GWE_Item",IF($AI141="Elektra",SUMIFS($W:$W,$A:$A,$A141,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A141,$B:$B,"GWE"),IF($AI141="Gas",SUMIFS($Y:$Y,$A:$A,$A141,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A141,$B:$B,"GWE"),IF($AI141="Water",SUMIFS($AA:$AA,$A:$A,$A141,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A141,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN141" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO141" s="13"/>
       <c r="AP141" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ141" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16577,11 +16589,11 @@
         <v>0.21</v>
       </c>
       <c r="N142" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O142" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R142" s="12" t="str">
@@ -16592,35 +16604,35 @@
         <v>50</v>
       </c>
       <c r="AE142" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF142" s="13">
         <v>0.21</v>
       </c>
       <c r="AG142" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH142" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL142" t="str">
-        <f>IF($B142="GWE_Item",IF($AI142="Elektra",SUMIFS($W:$W,$A:$A,$A142,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A142,$B:$B,"GWE"),IF($AI142="Gas",SUMIFS($Y:$Y,$A:$A,$A142,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A142,$B:$B,"GWE"),IF($AI142="Water",SUMIFS($AA:$AA,$A:$A,$A142,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A142,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN142" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO142" s="13"/>
       <c r="AP142" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ142" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16647,11 +16659,11 @@
         <v>0.21</v>
       </c>
       <c r="N143" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O143" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R143" s="12" t="str">
@@ -16662,35 +16674,35 @@
         <v>50</v>
       </c>
       <c r="AE143" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF143" s="13">
         <v>0.21</v>
       </c>
       <c r="AG143" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH143" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL143" t="str">
-        <f>IF($B143="GWE_Item",IF($AI143="Elektra",SUMIFS($W:$W,$A:$A,$A143,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A143,$B:$B,"GWE"),IF($AI143="Gas",SUMIFS($Y:$Y,$A:$A,$A143,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A143,$B:$B,"GWE"),IF($AI143="Water",SUMIFS($AA:$AA,$A:$A,$A143,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A143,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN143" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO143" s="13"/>
       <c r="AP143" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ143" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16717,11 +16729,11 @@
         <v>0.21</v>
       </c>
       <c r="N144" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O144" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R144" s="12" t="str">
@@ -16732,35 +16744,35 @@
         <v>50</v>
       </c>
       <c r="AE144" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF144" s="13">
         <v>0.21</v>
       </c>
       <c r="AG144" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH144" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL144" t="str">
-        <f>IF($B144="GWE_Item",IF($AI144="Elektra",SUMIFS($W:$W,$A:$A,$A144,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A144,$B:$B,"GWE"),IF($AI144="Gas",SUMIFS($Y:$Y,$A:$A,$A144,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A144,$B:$B,"GWE"),IF($AI144="Water",SUMIFS($AA:$AA,$A:$A,$A144,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A144,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN144" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO144" s="13"/>
       <c r="AP144" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ144" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16787,11 +16799,11 @@
         <v>0.21</v>
       </c>
       <c r="N145" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O145" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R145" s="12" t="str">
@@ -16802,35 +16814,35 @@
         <v>50</v>
       </c>
       <c r="AE145" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF145" s="13">
         <v>0.21</v>
       </c>
       <c r="AG145" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH145" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL145" t="str">
-        <f>IF($B145="GWE_Item",IF($AI145="Elektra",SUMIFS($W:$W,$A:$A,$A145,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A145,$B:$B,"GWE"),IF($AI145="Gas",SUMIFS($Y:$Y,$A:$A,$A145,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A145,$B:$B,"GWE"),IF($AI145="Water",SUMIFS($AA:$AA,$A:$A,$A145,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A145,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN145" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO145" s="13"/>
       <c r="AP145" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ145" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16857,11 +16869,11 @@
         <v>0.21</v>
       </c>
       <c r="N146" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O146" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R146" s="12" t="str">
@@ -16872,35 +16884,35 @@
         <v>50</v>
       </c>
       <c r="AE146" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF146" s="13">
         <v>0.21</v>
       </c>
       <c r="AG146" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH146" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL146" t="str">
-        <f>IF($B146="GWE_Item",IF($AI146="Elektra",SUMIFS($W:$W,$A:$A,$A146,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A146,$B:$B,"GWE"),IF($AI146="Gas",SUMIFS($Y:$Y,$A:$A,$A146,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A146,$B:$B,"GWE"),IF($AI146="Water",SUMIFS($AA:$AA,$A:$A,$A146,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A146,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN146" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO146" s="13"/>
       <c r="AP146" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ146" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16927,11 +16939,11 @@
         <v>0.21</v>
       </c>
       <c r="N147" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O147" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R147" s="12" t="str">
@@ -16942,35 +16954,35 @@
         <v>50</v>
       </c>
       <c r="AE147" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF147" s="13">
         <v>0.21</v>
       </c>
       <c r="AG147" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH147" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL147" t="str">
-        <f>IF($B147="GWE_Item",IF($AI147="Elektra",SUMIFS($W:$W,$A:$A,$A147,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A147,$B:$B,"GWE"),IF($AI147="Gas",SUMIFS($Y:$Y,$A:$A,$A147,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A147,$B:$B,"GWE"),IF($AI147="Water",SUMIFS($AA:$AA,$A:$A,$A147,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A147,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN147" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO147" s="13"/>
       <c r="AP147" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ147" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -16997,11 +17009,11 @@
         <v>0.21</v>
       </c>
       <c r="N148" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O148" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R148" s="12" t="str">
@@ -17012,35 +17024,35 @@
         <v>50</v>
       </c>
       <c r="AE148" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF148" s="13">
         <v>0.21</v>
       </c>
       <c r="AG148" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH148" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL148" t="str">
-        <f>IF($B148="GWE_Item",IF($AI148="Elektra",SUMIFS($W:$W,$A:$A,$A148,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A148,$B:$B,"GWE"),IF($AI148="Gas",SUMIFS($Y:$Y,$A:$A,$A148,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A148,$B:$B,"GWE"),IF($AI148="Water",SUMIFS($AA:$AA,$A:$A,$A148,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A148,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN148" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO148" s="13"/>
       <c r="AP148" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ148" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -17067,11 +17079,11 @@
         <v>0.21</v>
       </c>
       <c r="N149" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O149" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R149" s="12" t="str">
@@ -17082,35 +17094,35 @@
         <v>50</v>
       </c>
       <c r="AE149" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF149" s="13">
         <v>0.21</v>
       </c>
       <c r="AG149" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH149" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL149" t="str">
-        <f>IF($B149="GWE_Item",IF($AI149="Elektra",SUMIFS($W:$W,$A:$A,$A149,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A149,$B:$B,"GWE"),IF($AI149="Gas",SUMIFS($Y:$Y,$A:$A,$A149,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A149,$B:$B,"GWE"),IF($AI149="Water",SUMIFS($AA:$AA,$A:$A,$A149,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A149,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN149" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO149" s="13"/>
       <c r="AP149" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ149" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -17137,11 +17149,11 @@
         <v>0.21</v>
       </c>
       <c r="N150" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O150" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R150" s="12" t="str">
@@ -17152,35 +17164,35 @@
         <v>50</v>
       </c>
       <c r="AE150" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF150" s="13">
         <v>0.21</v>
       </c>
       <c r="AG150" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH150" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL150" t="str">
-        <f>IF($B150="GWE_Item",IF($AI150="Elektra",SUMIFS($W:$W,$A:$A,$A150,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A150,$B:$B,"GWE"),IF($AI150="Gas",SUMIFS($Y:$Y,$A:$A,$A150,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A150,$B:$B,"GWE"),IF($AI150="Water",SUMIFS($AA:$AA,$A:$A,$A150,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A150,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN150" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO150" s="13"/>
       <c r="AP150" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ150" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -17207,11 +17219,11 @@
         <v>0.21</v>
       </c>
       <c r="N151" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O151" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R151" s="12" t="str">
@@ -17222,35 +17234,35 @@
         <v>50</v>
       </c>
       <c r="AE151" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF151" s="13">
         <v>0.21</v>
       </c>
       <c r="AG151" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH151" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL151" t="str">
-        <f>IF($B151="GWE_Item",IF($AI151="Elektra",SUMIFS($W:$W,$A:$A,$A151,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A151,$B:$B,"GWE"),IF($AI151="Gas",SUMIFS($Y:$Y,$A:$A,$A151,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A151,$B:$B,"GWE"),IF($AI151="Water",SUMIFS($AA:$AA,$A:$A,$A151,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A151,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN151" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO151" s="13"/>
       <c r="AP151" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ151" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -17277,11 +17289,11 @@
         <v>0.21</v>
       </c>
       <c r="N152" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O152" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R152" s="12" t="str">
@@ -17292,35 +17304,35 @@
         <v>50</v>
       </c>
       <c r="AE152" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF152" s="13">
         <v>0.21</v>
       </c>
       <c r="AG152" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH152" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL152" t="str">
-        <f>IF($B152="GWE_Item",IF($AI152="Elektra",SUMIFS($W:$W,$A:$A,$A152,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A152,$B:$B,"GWE"),IF($AI152="Gas",SUMIFS($Y:$Y,$A:$A,$A152,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A152,$B:$B,"GWE"),IF($AI152="Water",SUMIFS($AA:$AA,$A:$A,$A152,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A152,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN152" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO152" s="13"/>
       <c r="AP152" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ152" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -17347,11 +17359,11 @@
         <v>0.21</v>
       </c>
       <c r="N153" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O153" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R153" s="12" t="str">
@@ -17362,35 +17374,35 @@
         <v>50</v>
       </c>
       <c r="AE153" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF153" s="13">
         <v>0.21</v>
       </c>
       <c r="AG153" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH153" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL153" t="str">
-        <f>IF($B153="GWE_Item",IF($AI153="Elektra",SUMIFS($W:$W,$A:$A,$A153,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A153,$B:$B,"GWE"),IF($AI153="Gas",SUMIFS($Y:$Y,$A:$A,$A153,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A153,$B:$B,"GWE"),IF($AI153="Water",SUMIFS($AA:$AA,$A:$A,$A153,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A153,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN153" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO153" s="13"/>
       <c r="AP153" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ153" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -17417,11 +17429,11 @@
         <v>0.21</v>
       </c>
       <c r="N154" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O154" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R154" s="12" t="str">
@@ -17432,35 +17444,35 @@
         <v>50</v>
       </c>
       <c r="AE154" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF154" s="13">
         <v>0.21</v>
       </c>
       <c r="AG154" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH154" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL154" t="str">
-        <f>IF($B154="GWE_Item",IF($AI154="Elektra",SUMIFS($W:$W,$A:$A,$A154,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A154,$B:$B,"GWE"),IF($AI154="Gas",SUMIFS($Y:$Y,$A:$A,$A154,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A154,$B:$B,"GWE"),IF($AI154="Water",SUMIFS($AA:$AA,$A:$A,$A154,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A154,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN154" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO154" s="13"/>
       <c r="AP154" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ154" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -17487,11 +17499,11 @@
         <v>0.21</v>
       </c>
       <c r="N155" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O155" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R155" s="12" t="str">
@@ -17502,35 +17514,35 @@
         <v>50</v>
       </c>
       <c r="AE155" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF155" s="13">
         <v>0.21</v>
       </c>
       <c r="AG155" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH155" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL155" t="str">
-        <f>IF($B155="GWE_Item",IF($AI155="Elektra",SUMIFS($W:$W,$A:$A,$A155,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A155,$B:$B,"GWE"),IF($AI155="Gas",SUMIFS($Y:$Y,$A:$A,$A155,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A155,$B:$B,"GWE"),IF($AI155="Water",SUMIFS($AA:$AA,$A:$A,$A155,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A155,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN155" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO155" s="13"/>
       <c r="AP155" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ155" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -17557,11 +17569,11 @@
         <v>0.21</v>
       </c>
       <c r="N156" s="11" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="O156" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R156" s="12" t="str">
@@ -17572,35 +17584,35 @@
         <v>50</v>
       </c>
       <c r="AE156" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AF156" s="13">
         <v>0.21</v>
       </c>
       <c r="AG156" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AH156" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AL156" t="str">
-        <f>IF($B156="GWE_Item",IF($AI156="Elektra",SUMIFS($W:$W,$A:$A,$A156,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A156,$B:$B,"GWE"),IF($AI156="Gas",SUMIFS($Y:$Y,$A:$A,$A156,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A156,$B:$B,"GWE"),IF($AI156="Water",SUMIFS($AA:$AA,$A:$A,$A156,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A156,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN156" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO156" s="13"/>
       <c r="AP156" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="AQ156" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
@@ -17627,11 +17639,11 @@
         <v>0.21</v>
       </c>
       <c r="N157" s="11" t="e">
-        <f t="shared" ref="N157:N188" si="47">L157 * (1 + M157)</f>
+        <f t="shared" ref="N157:N188" si="52">L157 * (1 + M157)</f>
         <v>#VALUE!</v>
       </c>
       <c r="O157" s="11">
-        <f t="shared" ref="O157:O188" si="48">IF(K157="Eigen Beheer",0,IF(AND(ISNUMBER(N157),I157&lt;&gt;"",H157&lt;&gt;""),YEARFRAC(H157,I157,4)*12*N157,0))</f>
+        <f t="shared" ref="O157:O188" si="53">IF(K157="Eigen Beheer",0,IF(AND(ISNUMBER(N157),I157&lt;&gt;"",H157&lt;&gt;""),YEARFRAC(H157,I157,4)*12*N157,0))</f>
         <v>0</v>
       </c>
       <c r="R157" s="12" t="str">
@@ -17642,35 +17654,35 @@
         <v>50</v>
       </c>
       <c r="AE157" s="11" t="str">
-        <f t="shared" ref="AE157:AE188" si="49">IF(AB157="","",IF(ISNUMBER(SEARCH("Basis",AB157)),(250/1.21)+MAX(0,AC157-5)*AD157,IF(ISNUMBER(SEARCH("Intensief",AB157)),(375/1.21)+MAX(0,AC157-7)*AD157,AC157*AD157)))</f>
+        <f t="shared" ref="AE157:AE188" si="54">IF(AB157="","",IF(ISNUMBER(SEARCH("Basis",AB157)),(250/1.21)+MAX(0,AC157-5)*AD157,IF(ISNUMBER(SEARCH("Intensief",AB157)),(375/1.21)+MAX(0,AC157-7)*AD157,AC157*AD157)))</f>
         <v/>
       </c>
       <c r="AF157" s="13">
         <v>0.21</v>
       </c>
       <c r="AG157" s="11" t="str">
-        <f t="shared" ref="AG157:AG188" si="50">IF(AE157&lt;&gt;"",AE157*AF157,"")</f>
+        <f t="shared" ref="AG157:AG188" si="55">IF(AE157&lt;&gt;"",AE157*AF157,"")</f>
         <v/>
       </c>
       <c r="AH157" s="11" t="str">
-        <f t="shared" ref="AH157:AH188" si="51">IF(AE157&lt;&gt;"",AE157+AG157,"")</f>
+        <f t="shared" ref="AH157:AH188" si="56">IF(AE157&lt;&gt;"",AE157+AG157,"")</f>
         <v/>
       </c>
       <c r="AL157" t="str">
-        <f>IF($B157="GWE_Item",IF($AI157="Elektra",SUMIFS($W:$W,$A:$A,$A157,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A157,$B:$B,"GWE"),IF($AI157="Gas",SUMIFS($Y:$Y,$A:$A,$A157,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A157,$B:$B,"GWE"),IF($AI157="Water",SUMIFS($AA:$AA,$A:$A,$A157,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A157,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AN157" s="11" t="str">
-        <f t="shared" ref="AN157:AN188" si="52">IF(AND(AL157&lt;&gt;"",AM157&lt;&gt;""),AL157*AM157,"")</f>
+        <f t="shared" ref="AN157:AN188" si="57">IF(AND(AL157&lt;&gt;"",AM157&lt;&gt;""),AL157*AM157,"")</f>
         <v/>
       </c>
       <c r="AO157" s="13"/>
       <c r="AP157" s="11" t="str">
-        <f t="shared" ref="AP157:AP188" si="53">IF(AND(AN157&lt;&gt;"",AO157&lt;&gt;""),AN157*AO157,"")</f>
+        <f t="shared" ref="AP157:AP188" si="58">IF(AND(AN157&lt;&gt;"",AO157&lt;&gt;""),AN157*AO157,"")</f>
         <v/>
       </c>
       <c r="AQ157" s="11" t="str">
-        <f t="shared" ref="AQ157:AQ188" si="54">IF(AND(AN157&lt;&gt;"",AP157&lt;&gt;""),AN157+AP157,"")</f>
+        <f t="shared" ref="AQ157:AQ188" si="59">IF(AND(AN157&lt;&gt;"",AP157&lt;&gt;""),AN157+AP157,"")</f>
         <v/>
       </c>
     </row>
@@ -17697,11 +17709,11 @@
         <v>0.21</v>
       </c>
       <c r="N158" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O158" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R158" s="12" t="str">
@@ -17712,35 +17724,35 @@
         <v>50</v>
       </c>
       <c r="AE158" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF158" s="13">
         <v>0.21</v>
       </c>
       <c r="AG158" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH158" s="11" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AL158" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="AL158" t="str">
-        <f>IF($B158="GWE_Item",IF($AI158="Elektra",SUMIFS($W:$W,$A:$A,$A158,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A158,$B:$B,"GWE"),IF($AI158="Gas",SUMIFS($Y:$Y,$A:$A,$A158,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A158,$B:$B,"GWE"),IF($AI158="Water",SUMIFS($AA:$AA,$A:$A,$A158,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A158,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN158" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO158" s="13"/>
       <c r="AP158" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ158" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -17767,11 +17779,11 @@
         <v>0.21</v>
       </c>
       <c r="N159" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O159" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R159" s="12" t="str">
@@ -17782,35 +17794,35 @@
         <v>50</v>
       </c>
       <c r="AE159" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF159" s="13">
         <v>0.21</v>
       </c>
       <c r="AG159" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH159" s="11" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AL159" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="AL159" t="str">
-        <f>IF($B159="GWE_Item",IF($AI159="Elektra",SUMIFS($W:$W,$A:$A,$A159,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A159,$B:$B,"GWE"),IF($AI159="Gas",SUMIFS($Y:$Y,$A:$A,$A159,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A159,$B:$B,"GWE"),IF($AI159="Water",SUMIFS($AA:$AA,$A:$A,$A159,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A159,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN159" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO159" s="13"/>
       <c r="AP159" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ159" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -17837,11 +17849,11 @@
         <v>0.21</v>
       </c>
       <c r="N160" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O160" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R160" s="12" t="str">
@@ -17852,35 +17864,35 @@
         <v>50</v>
       </c>
       <c r="AE160" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF160" s="13">
         <v>0.21</v>
       </c>
       <c r="AG160" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH160" s="11" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AL160" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="AL160" t="str">
-        <f>IF($B160="GWE_Item",IF($AI160="Elektra",SUMIFS($W:$W,$A:$A,$A160,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A160,$B:$B,"GWE"),IF($AI160="Gas",SUMIFS($Y:$Y,$A:$A,$A160,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A160,$B:$B,"GWE"),IF($AI160="Water",SUMIFS($AA:$AA,$A:$A,$A160,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A160,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN160" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO160" s="13"/>
       <c r="AP160" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ160" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -17907,11 +17919,11 @@
         <v>0.21</v>
       </c>
       <c r="N161" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O161" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R161" s="12" t="str">
@@ -17922,35 +17934,35 @@
         <v>50</v>
       </c>
       <c r="AE161" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF161" s="13">
         <v>0.21</v>
       </c>
       <c r="AG161" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH161" s="11" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AL161" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="AL161" t="str">
-        <f>IF($B161="GWE_Item",IF($AI161="Elektra",SUMIFS($W:$W,$A:$A,$A161,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A161,$B:$B,"GWE"),IF($AI161="Gas",SUMIFS($Y:$Y,$A:$A,$A161,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A161,$B:$B,"GWE"),IF($AI161="Water",SUMIFS($AA:$AA,$A:$A,$A161,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A161,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN161" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO161" s="13"/>
       <c r="AP161" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ161" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -17977,11 +17989,11 @@
         <v>0.21</v>
       </c>
       <c r="N162" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O162" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R162" s="12" t="str">
@@ -17992,35 +18004,35 @@
         <v>50</v>
       </c>
       <c r="AE162" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF162" s="13">
         <v>0.21</v>
       </c>
       <c r="AG162" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH162" s="11" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AL162" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="AL162" t="str">
-        <f>IF($B162="GWE_Item",IF($AI162="Elektra",SUMIFS($W:$W,$A:$A,$A162,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A162,$B:$B,"GWE"),IF($AI162="Gas",SUMIFS($Y:$Y,$A:$A,$A162,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A162,$B:$B,"GWE"),IF($AI162="Water",SUMIFS($AA:$AA,$A:$A,$A162,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A162,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN162" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO162" s="13"/>
       <c r="AP162" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ162" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18047,11 +18059,11 @@
         <v>0.21</v>
       </c>
       <c r="N163" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O163" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R163" s="12" t="str">
@@ -18062,35 +18074,35 @@
         <v>50</v>
       </c>
       <c r="AE163" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF163" s="13">
         <v>0.21</v>
       </c>
       <c r="AG163" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH163" s="11" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AL163" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="AL163" t="str">
-        <f>IF($B163="GWE_Item",IF($AI163="Elektra",SUMIFS($W:$W,$A:$A,$A163,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A163,$B:$B,"GWE"),IF($AI163="Gas",SUMIFS($Y:$Y,$A:$A,$A163,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A163,$B:$B,"GWE"),IF($AI163="Water",SUMIFS($AA:$AA,$A:$A,$A163,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A163,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN163" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO163" s="13"/>
       <c r="AP163" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ163" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18117,11 +18129,11 @@
         <v>0.21</v>
       </c>
       <c r="N164" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O164" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R164" s="12" t="str">
@@ -18132,35 +18144,35 @@
         <v>50</v>
       </c>
       <c r="AE164" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF164" s="13">
         <v>0.21</v>
       </c>
       <c r="AG164" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH164" s="11" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AL164" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="AL164" t="str">
-        <f>IF($B164="GWE_Item",IF($AI164="Elektra",SUMIFS($W:$W,$A:$A,$A164,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A164,$B:$B,"GWE"),IF($AI164="Gas",SUMIFS($Y:$Y,$A:$A,$A164,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A164,$B:$B,"GWE"),IF($AI164="Water",SUMIFS($AA:$AA,$A:$A,$A164,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A164,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN164" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO164" s="13"/>
       <c r="AP164" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ164" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18187,11 +18199,11 @@
         <v>0.21</v>
       </c>
       <c r="N165" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O165" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R165" s="12" t="str">
@@ -18202,35 +18214,35 @@
         <v>50</v>
       </c>
       <c r="AE165" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF165" s="13">
         <v>0.21</v>
       </c>
       <c r="AG165" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH165" s="11" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AL165" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="AL165" t="str">
-        <f>IF($B165="GWE_Item",IF($AI165="Elektra",SUMIFS($W:$W,$A:$A,$A165,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A165,$B:$B,"GWE"),IF($AI165="Gas",SUMIFS($Y:$Y,$A:$A,$A165,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A165,$B:$B,"GWE"),IF($AI165="Water",SUMIFS($AA:$AA,$A:$A,$A165,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A165,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN165" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO165" s="13"/>
       <c r="AP165" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ165" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18257,11 +18269,11 @@
         <v>0.21</v>
       </c>
       <c r="N166" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O166" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R166" s="12" t="str">
@@ -18272,35 +18284,35 @@
         <v>50</v>
       </c>
       <c r="AE166" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF166" s="13">
         <v>0.21</v>
       </c>
       <c r="AG166" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH166" s="11" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AL166" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="AL166" t="str">
-        <f>IF($B166="GWE_Item",IF($AI166="Elektra",SUMIFS($W:$W,$A:$A,$A166,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A166,$B:$B,"GWE"),IF($AI166="Gas",SUMIFS($Y:$Y,$A:$A,$A166,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A166,$B:$B,"GWE"),IF($AI166="Water",SUMIFS($AA:$AA,$A:$A,$A166,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A166,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN166" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO166" s="13"/>
       <c r="AP166" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ166" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18327,11 +18339,11 @@
         <v>0.21</v>
       </c>
       <c r="N167" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O167" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R167" s="12" t="str">
@@ -18342,35 +18354,35 @@
         <v>50</v>
       </c>
       <c r="AE167" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF167" s="13">
         <v>0.21</v>
       </c>
       <c r="AG167" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH167" s="11" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AL167" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="AL167" t="str">
-        <f>IF($B167="GWE_Item",IF($AI167="Elektra",SUMIFS($W:$W,$A:$A,$A167,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A167,$B:$B,"GWE"),IF($AI167="Gas",SUMIFS($Y:$Y,$A:$A,$A167,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A167,$B:$B,"GWE"),IF($AI167="Water",SUMIFS($AA:$AA,$A:$A,$A167,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A167,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN167" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO167" s="13"/>
       <c r="AP167" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ167" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18397,11 +18409,11 @@
         <v>0.21</v>
       </c>
       <c r="N168" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O168" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R168" s="12" t="str">
@@ -18412,35 +18424,35 @@
         <v>50</v>
       </c>
       <c r="AE168" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF168" s="13">
         <v>0.21</v>
       </c>
       <c r="AG168" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH168" s="11" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AL168" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="AL168" t="str">
-        <f>IF($B168="GWE_Item",IF($AI168="Elektra",SUMIFS($W:$W,$A:$A,$A168,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A168,$B:$B,"GWE"),IF($AI168="Gas",SUMIFS($Y:$Y,$A:$A,$A168,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A168,$B:$B,"GWE"),IF($AI168="Water",SUMIFS($AA:$AA,$A:$A,$A168,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A168,$B:$B,"GWE"),""))),"")</f>
-        <v/>
-      </c>
       <c r="AN168" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO168" s="13"/>
       <c r="AP168" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ168" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18467,11 +18479,11 @@
         <v>0.21</v>
       </c>
       <c r="N169" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O169" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R169" s="12" t="str">
@@ -18482,35 +18494,35 @@
         <v>50</v>
       </c>
       <c r="AE169" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF169" s="13">
         <v>0.21</v>
       </c>
       <c r="AG169" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH169" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL169" t="str">
-        <f>IF($B169="GWE_Item",IF($AI169="Elektra",SUMIFS($W:$W,$A:$A,$A169,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A169,$B:$B,"GWE"),IF($AI169="Gas",SUMIFS($Y:$Y,$A:$A,$A169,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A169,$B:$B,"GWE"),IF($AI169="Water",SUMIFS($AA:$AA,$A:$A,$A169,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A169,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" ref="AL169:AL196" si="60">IF($B169="GWE_Item",IF($AI169="Elektra",SUMIFS($W:$W,$A:$A,$A169,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A169,$B:$B,"GWE"),IF($AI169="Gas",SUMIFS($Y:$Y,$A:$A,$A169,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A169,$B:$B,"GWE"),IF($AI169="Water",SUMIFS($AA:$AA,$A:$A,$A169,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A169,$B:$B,"GWE"),""))),"")</f>
         <v/>
       </c>
       <c r="AN169" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO169" s="13"/>
       <c r="AP169" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ169" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18537,11 +18549,11 @@
         <v>0.21</v>
       </c>
       <c r="N170" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O170" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R170" s="12" t="str">
@@ -18552,35 +18564,35 @@
         <v>50</v>
       </c>
       <c r="AE170" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF170" s="13">
         <v>0.21</v>
       </c>
       <c r="AG170" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH170" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL170" t="str">
-        <f>IF($B170="GWE_Item",IF($AI170="Elektra",SUMIFS($W:$W,$A:$A,$A170,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A170,$B:$B,"GWE"),IF($AI170="Gas",SUMIFS($Y:$Y,$A:$A,$A170,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A170,$B:$B,"GWE"),IF($AI170="Water",SUMIFS($AA:$AA,$A:$A,$A170,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A170,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN170" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO170" s="13"/>
       <c r="AP170" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ170" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18607,11 +18619,11 @@
         <v>0.21</v>
       </c>
       <c r="N171" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O171" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R171" s="12" t="str">
@@ -18622,35 +18634,35 @@
         <v>50</v>
       </c>
       <c r="AE171" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF171" s="13">
         <v>0.21</v>
       </c>
       <c r="AG171" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH171" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL171" t="str">
-        <f>IF($B171="GWE_Item",IF($AI171="Elektra",SUMIFS($W:$W,$A:$A,$A171,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A171,$B:$B,"GWE"),IF($AI171="Gas",SUMIFS($Y:$Y,$A:$A,$A171,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A171,$B:$B,"GWE"),IF($AI171="Water",SUMIFS($AA:$AA,$A:$A,$A171,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A171,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN171" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO171" s="13"/>
       <c r="AP171" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ171" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18677,11 +18689,11 @@
         <v>0.21</v>
       </c>
       <c r="N172" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O172" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R172" s="12" t="str">
@@ -18692,35 +18704,35 @@
         <v>50</v>
       </c>
       <c r="AE172" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF172" s="13">
         <v>0.21</v>
       </c>
       <c r="AG172" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH172" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL172" t="str">
-        <f>IF($B172="GWE_Item",IF($AI172="Elektra",SUMIFS($W:$W,$A:$A,$A172,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A172,$B:$B,"GWE"),IF($AI172="Gas",SUMIFS($Y:$Y,$A:$A,$A172,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A172,$B:$B,"GWE"),IF($AI172="Water",SUMIFS($AA:$AA,$A:$A,$A172,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A172,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN172" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO172" s="13"/>
       <c r="AP172" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ172" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18747,11 +18759,11 @@
         <v>0.21</v>
       </c>
       <c r="N173" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O173" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R173" s="12" t="str">
@@ -18762,35 +18774,35 @@
         <v>50</v>
       </c>
       <c r="AE173" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF173" s="13">
         <v>0.21</v>
       </c>
       <c r="AG173" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH173" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL173" t="str">
-        <f>IF($B173="GWE_Item",IF($AI173="Elektra",SUMIFS($W:$W,$A:$A,$A173,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A173,$B:$B,"GWE"),IF($AI173="Gas",SUMIFS($Y:$Y,$A:$A,$A173,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A173,$B:$B,"GWE"),IF($AI173="Water",SUMIFS($AA:$AA,$A:$A,$A173,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A173,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN173" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO173" s="13"/>
       <c r="AP173" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ173" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18817,11 +18829,11 @@
         <v>0.21</v>
       </c>
       <c r="N174" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O174" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R174" s="12" t="str">
@@ -18832,35 +18844,35 @@
         <v>50</v>
       </c>
       <c r="AE174" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF174" s="13">
         <v>0.21</v>
       </c>
       <c r="AG174" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH174" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL174" t="str">
-        <f>IF($B174="GWE_Item",IF($AI174="Elektra",SUMIFS($W:$W,$A:$A,$A174,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A174,$B:$B,"GWE"),IF($AI174="Gas",SUMIFS($Y:$Y,$A:$A,$A174,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A174,$B:$B,"GWE"),IF($AI174="Water",SUMIFS($AA:$AA,$A:$A,$A174,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A174,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN174" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO174" s="13"/>
       <c r="AP174" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ174" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18887,11 +18899,11 @@
         <v>0.21</v>
       </c>
       <c r="N175" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O175" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R175" s="12" t="str">
@@ -18902,35 +18914,35 @@
         <v>50</v>
       </c>
       <c r="AE175" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF175" s="13">
         <v>0.21</v>
       </c>
       <c r="AG175" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH175" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL175" t="str">
-        <f>IF($B175="GWE_Item",IF($AI175="Elektra",SUMIFS($W:$W,$A:$A,$A175,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A175,$B:$B,"GWE"),IF($AI175="Gas",SUMIFS($Y:$Y,$A:$A,$A175,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A175,$B:$B,"GWE"),IF($AI175="Water",SUMIFS($AA:$AA,$A:$A,$A175,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A175,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN175" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO175" s="13"/>
       <c r="AP175" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ175" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -18957,11 +18969,11 @@
         <v>0.21</v>
       </c>
       <c r="N176" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O176" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R176" s="12" t="str">
@@ -18972,35 +18984,35 @@
         <v>50</v>
       </c>
       <c r="AE176" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF176" s="13">
         <v>0.21</v>
       </c>
       <c r="AG176" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH176" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL176" t="str">
-        <f>IF($B176="GWE_Item",IF($AI176="Elektra",SUMIFS($W:$W,$A:$A,$A176,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A176,$B:$B,"GWE"),IF($AI176="Gas",SUMIFS($Y:$Y,$A:$A,$A176,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A176,$B:$B,"GWE"),IF($AI176="Water",SUMIFS($AA:$AA,$A:$A,$A176,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A176,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN176" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO176" s="13"/>
       <c r="AP176" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ176" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19027,11 +19039,11 @@
         <v>0.21</v>
       </c>
       <c r="N177" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O177" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R177" s="12" t="str">
@@ -19042,35 +19054,35 @@
         <v>50</v>
       </c>
       <c r="AE177" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF177" s="13">
         <v>0.21</v>
       </c>
       <c r="AG177" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH177" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL177" t="str">
-        <f>IF($B177="GWE_Item",IF($AI177="Elektra",SUMIFS($W:$W,$A:$A,$A177,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A177,$B:$B,"GWE"),IF($AI177="Gas",SUMIFS($Y:$Y,$A:$A,$A177,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A177,$B:$B,"GWE"),IF($AI177="Water",SUMIFS($AA:$AA,$A:$A,$A177,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A177,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN177" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO177" s="13"/>
       <c r="AP177" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ177" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19097,11 +19109,11 @@
         <v>0.21</v>
       </c>
       <c r="N178" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O178" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R178" s="12" t="str">
@@ -19112,35 +19124,35 @@
         <v>50</v>
       </c>
       <c r="AE178" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF178" s="13">
         <v>0.21</v>
       </c>
       <c r="AG178" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH178" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL178" t="str">
-        <f>IF($B178="GWE_Item",IF($AI178="Elektra",SUMIFS($W:$W,$A:$A,$A178,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A178,$B:$B,"GWE"),IF($AI178="Gas",SUMIFS($Y:$Y,$A:$A,$A178,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A178,$B:$B,"GWE"),IF($AI178="Water",SUMIFS($AA:$AA,$A:$A,$A178,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A178,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN178" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO178" s="13"/>
       <c r="AP178" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ178" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19167,11 +19179,11 @@
         <v>0.21</v>
       </c>
       <c r="N179" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O179" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R179" s="12" t="str">
@@ -19182,35 +19194,35 @@
         <v>50</v>
       </c>
       <c r="AE179" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF179" s="13">
         <v>0.21</v>
       </c>
       <c r="AG179" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH179" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL179" t="str">
-        <f>IF($B179="GWE_Item",IF($AI179="Elektra",SUMIFS($W:$W,$A:$A,$A179,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A179,$B:$B,"GWE"),IF($AI179="Gas",SUMIFS($Y:$Y,$A:$A,$A179,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A179,$B:$B,"GWE"),IF($AI179="Water",SUMIFS($AA:$AA,$A:$A,$A179,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A179,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN179" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO179" s="13"/>
       <c r="AP179" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ179" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19237,11 +19249,11 @@
         <v>0.21</v>
       </c>
       <c r="N180" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O180" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R180" s="12" t="str">
@@ -19252,35 +19264,35 @@
         <v>50</v>
       </c>
       <c r="AE180" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF180" s="13">
         <v>0.21</v>
       </c>
       <c r="AG180" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH180" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL180" t="str">
-        <f>IF($B180="GWE_Item",IF($AI180="Elektra",SUMIFS($W:$W,$A:$A,$A180,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A180,$B:$B,"GWE"),IF($AI180="Gas",SUMIFS($Y:$Y,$A:$A,$A180,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A180,$B:$B,"GWE"),IF($AI180="Water",SUMIFS($AA:$AA,$A:$A,$A180,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A180,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN180" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO180" s="13"/>
       <c r="AP180" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ180" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19307,11 +19319,11 @@
         <v>0.21</v>
       </c>
       <c r="N181" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O181" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R181" s="12" t="str">
@@ -19322,35 +19334,35 @@
         <v>50</v>
       </c>
       <c r="AE181" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF181" s="13">
         <v>0.21</v>
       </c>
       <c r="AG181" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH181" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL181" t="str">
-        <f>IF($B181="GWE_Item",IF($AI181="Elektra",SUMIFS($W:$W,$A:$A,$A181,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A181,$B:$B,"GWE"),IF($AI181="Gas",SUMIFS($Y:$Y,$A:$A,$A181,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A181,$B:$B,"GWE"),IF($AI181="Water",SUMIFS($AA:$AA,$A:$A,$A181,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A181,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN181" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO181" s="13"/>
       <c r="AP181" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ181" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19377,11 +19389,11 @@
         <v>0.21</v>
       </c>
       <c r="N182" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O182" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R182" s="12" t="str">
@@ -19392,35 +19404,35 @@
         <v>50</v>
       </c>
       <c r="AE182" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF182" s="13">
         <v>0.21</v>
       </c>
       <c r="AG182" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH182" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL182" t="str">
-        <f>IF($B182="GWE_Item",IF($AI182="Elektra",SUMIFS($W:$W,$A:$A,$A182,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A182,$B:$B,"GWE"),IF($AI182="Gas",SUMIFS($Y:$Y,$A:$A,$A182,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A182,$B:$B,"GWE"),IF($AI182="Water",SUMIFS($AA:$AA,$A:$A,$A182,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A182,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN182" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO182" s="13"/>
       <c r="AP182" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ182" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19447,11 +19459,11 @@
         <v>0.21</v>
       </c>
       <c r="N183" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O183" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R183" s="12" t="str">
@@ -19462,35 +19474,35 @@
         <v>50</v>
       </c>
       <c r="AE183" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF183" s="13">
         <v>0.21</v>
       </c>
       <c r="AG183" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH183" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL183" t="str">
-        <f>IF($B183="GWE_Item",IF($AI183="Elektra",SUMIFS($W:$W,$A:$A,$A183,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A183,$B:$B,"GWE"),IF($AI183="Gas",SUMIFS($Y:$Y,$A:$A,$A183,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A183,$B:$B,"GWE"),IF($AI183="Water",SUMIFS($AA:$AA,$A:$A,$A183,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A183,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN183" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO183" s="13"/>
       <c r="AP183" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ183" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19517,11 +19529,11 @@
         <v>0.21</v>
       </c>
       <c r="N184" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O184" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R184" s="12" t="str">
@@ -19532,35 +19544,35 @@
         <v>50</v>
       </c>
       <c r="AE184" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF184" s="13">
         <v>0.21</v>
       </c>
       <c r="AG184" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH184" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL184" t="str">
-        <f>IF($B184="GWE_Item",IF($AI184="Elektra",SUMIFS($W:$W,$A:$A,$A184,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A184,$B:$B,"GWE"),IF($AI184="Gas",SUMIFS($Y:$Y,$A:$A,$A184,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A184,$B:$B,"GWE"),IF($AI184="Water",SUMIFS($AA:$AA,$A:$A,$A184,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A184,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN184" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO184" s="13"/>
       <c r="AP184" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ184" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19587,11 +19599,11 @@
         <v>0.21</v>
       </c>
       <c r="N185" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O185" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R185" s="12" t="str">
@@ -19602,35 +19614,35 @@
         <v>50</v>
       </c>
       <c r="AE185" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF185" s="13">
         <v>0.21</v>
       </c>
       <c r="AG185" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH185" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL185" t="str">
-        <f>IF($B185="GWE_Item",IF($AI185="Elektra",SUMIFS($W:$W,$A:$A,$A185,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A185,$B:$B,"GWE"),IF($AI185="Gas",SUMIFS($Y:$Y,$A:$A,$A185,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A185,$B:$B,"GWE"),IF($AI185="Water",SUMIFS($AA:$AA,$A:$A,$A185,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A185,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN185" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO185" s="13"/>
       <c r="AP185" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ185" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19657,11 +19669,11 @@
         <v>0.21</v>
       </c>
       <c r="N186" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O186" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R186" s="12" t="str">
@@ -19672,35 +19684,35 @@
         <v>50</v>
       </c>
       <c r="AE186" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF186" s="13">
         <v>0.21</v>
       </c>
       <c r="AG186" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH186" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL186" t="str">
-        <f>IF($B186="GWE_Item",IF($AI186="Elektra",SUMIFS($W:$W,$A:$A,$A186,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A186,$B:$B,"GWE"),IF($AI186="Gas",SUMIFS($Y:$Y,$A:$A,$A186,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A186,$B:$B,"GWE"),IF($AI186="Water",SUMIFS($AA:$AA,$A:$A,$A186,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A186,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN186" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO186" s="13"/>
       <c r="AP186" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ186" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19727,11 +19739,11 @@
         <v>0.21</v>
       </c>
       <c r="N187" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O187" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R187" s="12" t="str">
@@ -19742,35 +19754,35 @@
         <v>50</v>
       </c>
       <c r="AE187" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF187" s="13">
         <v>0.21</v>
       </c>
       <c r="AG187" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH187" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL187" t="str">
-        <f>IF($B187="GWE_Item",IF($AI187="Elektra",SUMIFS($W:$W,$A:$A,$A187,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A187,$B:$B,"GWE"),IF($AI187="Gas",SUMIFS($Y:$Y,$A:$A,$A187,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A187,$B:$B,"GWE"),IF($AI187="Water",SUMIFS($AA:$AA,$A:$A,$A187,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A187,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN187" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO187" s="13"/>
       <c r="AP187" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ187" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19797,11 +19809,11 @@
         <v>0.21</v>
       </c>
       <c r="N188" s="11" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="O188" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R188" s="12" t="str">
@@ -19812,35 +19824,35 @@
         <v>50</v>
       </c>
       <c r="AE188" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AF188" s="13">
         <v>0.21</v>
       </c>
       <c r="AG188" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AH188" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL188" t="str">
-        <f>IF($B188="GWE_Item",IF($AI188="Elektra",SUMIFS($W:$W,$A:$A,$A188,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A188,$B:$B,"GWE"),IF($AI188="Gas",SUMIFS($Y:$Y,$A:$A,$A188,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A188,$B:$B,"GWE"),IF($AI188="Water",SUMIFS($AA:$AA,$A:$A,$A188,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A188,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN188" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AO188" s="13"/>
       <c r="AP188" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AQ188" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
@@ -19867,11 +19879,11 @@
         <v>0.21</v>
       </c>
       <c r="N189" s="11" t="e">
-        <f t="shared" ref="N189:N196" si="55">L189 * (1 + M189)</f>
+        <f t="shared" ref="N189:N196" si="61">L189 * (1 + M189)</f>
         <v>#VALUE!</v>
       </c>
       <c r="O189" s="11">
-        <f t="shared" ref="O189:O196" si="56">IF(K189="Eigen Beheer",0,IF(AND(ISNUMBER(N189),I189&lt;&gt;"",H189&lt;&gt;""),YEARFRAC(H189,I189,4)*12*N189,0))</f>
+        <f t="shared" ref="O189:O196" si="62">IF(K189="Eigen Beheer",0,IF(AND(ISNUMBER(N189),I189&lt;&gt;"",H189&lt;&gt;""),YEARFRAC(H189,I189,4)*12*N189,0))</f>
         <v>0</v>
       </c>
       <c r="R189" s="12" t="str">
@@ -19882,35 +19894,35 @@
         <v>50</v>
       </c>
       <c r="AE189" s="11" t="str">
-        <f t="shared" ref="AE189:AE196" si="57">IF(AB189="","",IF(ISNUMBER(SEARCH("Basis",AB189)),(250/1.21)+MAX(0,AC189-5)*AD189,IF(ISNUMBER(SEARCH("Intensief",AB189)),(375/1.21)+MAX(0,AC189-7)*AD189,AC189*AD189)))</f>
+        <f t="shared" ref="AE189:AE196" si="63">IF(AB189="","",IF(ISNUMBER(SEARCH("Basis",AB189)),(250/1.21)+MAX(0,AC189-5)*AD189,IF(ISNUMBER(SEARCH("Intensief",AB189)),(375/1.21)+MAX(0,AC189-7)*AD189,AC189*AD189)))</f>
         <v/>
       </c>
       <c r="AF189" s="13">
         <v>0.21</v>
       </c>
       <c r="AG189" s="11" t="str">
-        <f t="shared" ref="AG189:AG196" si="58">IF(AE189&lt;&gt;"",AE189*AF189,"")</f>
+        <f t="shared" ref="AG189:AG196" si="64">IF(AE189&lt;&gt;"",AE189*AF189,"")</f>
         <v/>
       </c>
       <c r="AH189" s="11" t="str">
-        <f t="shared" ref="AH189:AH196" si="59">IF(AE189&lt;&gt;"",AE189+AG189,"")</f>
+        <f t="shared" ref="AH189:AH196" si="65">IF(AE189&lt;&gt;"",AE189+AG189,"")</f>
         <v/>
       </c>
       <c r="AL189" t="str">
-        <f>IF($B189="GWE_Item",IF($AI189="Elektra",SUMIFS($W:$W,$A:$A,$A189,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A189,$B:$B,"GWE"),IF($AI189="Gas",SUMIFS($Y:$Y,$A:$A,$A189,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A189,$B:$B,"GWE"),IF($AI189="Water",SUMIFS($AA:$AA,$A:$A,$A189,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A189,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN189" s="11" t="str">
-        <f t="shared" ref="AN189:AN196" si="60">IF(AND(AL189&lt;&gt;"",AM189&lt;&gt;""),AL189*AM189,"")</f>
+        <f t="shared" ref="AN189:AN196" si="66">IF(AND(AL189&lt;&gt;"",AM189&lt;&gt;""),AL189*AM189,"")</f>
         <v/>
       </c>
       <c r="AO189" s="13"/>
       <c r="AP189" s="11" t="str">
-        <f t="shared" ref="AP189:AP196" si="61">IF(AND(AN189&lt;&gt;"",AO189&lt;&gt;""),AN189*AO189,"")</f>
+        <f t="shared" ref="AP189:AP196" si="67">IF(AND(AN189&lt;&gt;"",AO189&lt;&gt;""),AN189*AO189,"")</f>
         <v/>
       </c>
       <c r="AQ189" s="11" t="str">
-        <f t="shared" ref="AQ189:AQ196" si="62">IF(AND(AN189&lt;&gt;"",AP189&lt;&gt;""),AN189+AP189,"")</f>
+        <f t="shared" ref="AQ189:AQ196" si="68">IF(AND(AN189&lt;&gt;"",AP189&lt;&gt;""),AN189+AP189,"")</f>
         <v/>
       </c>
     </row>
@@ -19937,11 +19949,11 @@
         <v>0.21</v>
       </c>
       <c r="N190" s="11" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="O190" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R190" s="12" t="str">
@@ -19952,35 +19964,35 @@
         <v>50</v>
       </c>
       <c r="AE190" s="11" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AF190" s="13">
         <v>0.21</v>
       </c>
       <c r="AG190" s="11" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AH190" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AL190" t="str">
-        <f>IF($B190="GWE_Item",IF($AI190="Elektra",SUMIFS($W:$W,$A:$A,$A190,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A190,$B:$B,"GWE"),IF($AI190="Gas",SUMIFS($Y:$Y,$A:$A,$A190,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A190,$B:$B,"GWE"),IF($AI190="Water",SUMIFS($AA:$AA,$A:$A,$A190,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A190,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN190" s="11" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AO190" s="13"/>
       <c r="AP190" s="11" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AQ190" s="11" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
     </row>
@@ -20007,11 +20019,11 @@
         <v>0.21</v>
       </c>
       <c r="N191" s="11" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="O191" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R191" s="12" t="str">
@@ -20022,35 +20034,35 @@
         <v>50</v>
       </c>
       <c r="AE191" s="11" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AF191" s="13">
         <v>0.21</v>
       </c>
       <c r="AG191" s="11" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AH191" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AL191" t="str">
-        <f>IF($B191="GWE_Item",IF($AI191="Elektra",SUMIFS($W:$W,$A:$A,$A191,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A191,$B:$B,"GWE"),IF($AI191="Gas",SUMIFS($Y:$Y,$A:$A,$A191,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A191,$B:$B,"GWE"),IF($AI191="Water",SUMIFS($AA:$AA,$A:$A,$A191,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A191,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN191" s="11" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AO191" s="13"/>
       <c r="AP191" s="11" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AQ191" s="11" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
     </row>
@@ -20077,11 +20089,11 @@
         <v>0.21</v>
       </c>
       <c r="N192" s="11" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="O192" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R192" s="12" t="str">
@@ -20092,35 +20104,35 @@
         <v>50</v>
       </c>
       <c r="AE192" s="11" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AF192" s="13">
         <v>0.21</v>
       </c>
       <c r="AG192" s="11" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AH192" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AL192" t="str">
-        <f>IF($B192="GWE_Item",IF($AI192="Elektra",SUMIFS($W:$W,$A:$A,$A192,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A192,$B:$B,"GWE"),IF($AI192="Gas",SUMIFS($Y:$Y,$A:$A,$A192,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A192,$B:$B,"GWE"),IF($AI192="Water",SUMIFS($AA:$AA,$A:$A,$A192,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A192,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN192" s="11" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AO192" s="13"/>
       <c r="AP192" s="11" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AQ192" s="11" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
     </row>
@@ -20147,11 +20159,11 @@
         <v>0.21</v>
       </c>
       <c r="N193" s="11" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="O193" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R193" s="12" t="str">
@@ -20162,35 +20174,35 @@
         <v>50</v>
       </c>
       <c r="AE193" s="11" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AF193" s="13">
         <v>0.21</v>
       </c>
       <c r="AG193" s="11" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AH193" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AL193" t="str">
-        <f>IF($B193="GWE_Item",IF($AI193="Elektra",SUMIFS($W:$W,$A:$A,$A193,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A193,$B:$B,"GWE"),IF($AI193="Gas",SUMIFS($Y:$Y,$A:$A,$A193,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A193,$B:$B,"GWE"),IF($AI193="Water",SUMIFS($AA:$AA,$A:$A,$A193,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A193,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN193" s="11" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AO193" s="13"/>
       <c r="AP193" s="11" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AQ193" s="11" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
     </row>
@@ -20217,11 +20229,11 @@
         <v>0.21</v>
       </c>
       <c r="N194" s="11" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="O194" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R194" s="12" t="str">
@@ -20232,35 +20244,35 @@
         <v>50</v>
       </c>
       <c r="AE194" s="11" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AF194" s="13">
         <v>0.21</v>
       </c>
       <c r="AG194" s="11" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AH194" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AL194" t="str">
-        <f>IF($B194="GWE_Item",IF($AI194="Elektra",SUMIFS($W:$W,$A:$A,$A194,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A194,$B:$B,"GWE"),IF($AI194="Gas",SUMIFS($Y:$Y,$A:$A,$A194,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A194,$B:$B,"GWE"),IF($AI194="Water",SUMIFS($AA:$AA,$A:$A,$A194,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A194,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN194" s="11" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AO194" s="13"/>
       <c r="AP194" s="11" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AQ194" s="11" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
     </row>
@@ -20287,11 +20299,11 @@
         <v>0.21</v>
       </c>
       <c r="N195" s="11" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="O195" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R195" s="12" t="str">
@@ -20302,35 +20314,35 @@
         <v>50</v>
       </c>
       <c r="AE195" s="11" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AF195" s="13">
         <v>0.21</v>
       </c>
       <c r="AG195" s="11" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AH195" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AL195" t="str">
-        <f>IF($B195="GWE_Item",IF($AI195="Elektra",SUMIFS($W:$W,$A:$A,$A195,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A195,$B:$B,"GWE"),IF($AI195="Gas",SUMIFS($Y:$Y,$A:$A,$A195,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A195,$B:$B,"GWE"),IF($AI195="Water",SUMIFS($AA:$AA,$A:$A,$A195,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A195,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN195" s="11" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AO195" s="13"/>
       <c r="AP195" s="11" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AQ195" s="11" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
     </row>
@@ -20357,11 +20369,11 @@
         <v>0.21</v>
       </c>
       <c r="N196" s="11" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="O196" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R196" s="12" t="str">
@@ -20372,35 +20384,35 @@
         <v>50</v>
       </c>
       <c r="AE196" s="11" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AF196" s="13">
         <v>0.21</v>
       </c>
       <c r="AG196" s="11" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AH196" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AL196" t="str">
-        <f>IF($B196="GWE_Item",IF($AI196="Elektra",SUMIFS($W:$W,$A:$A,$A196,$B:$B,"GWE")-SUMIFS($V:$V,$A:$A,$A196,$B:$B,"GWE"),IF($AI196="Gas",SUMIFS($Y:$Y,$A:$A,$A196,$B:$B,"GWE")-SUMIFS($X:$X,$A:$A,$A196,$B:$B,"GWE"),IF($AI196="Water",SUMIFS($AA:$AA,$A:$A,$A196,$B:$B,"GWE")-SUMIFS($Z:$Z,$A:$A,$A196,$B:$B,"GWE"),""))),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AN196" s="11" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AO196" s="13"/>
       <c r="AP196" s="11" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AQ196" s="11" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
     </row>
@@ -29069,8 +29081,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD8216A3BCF59A4CAC1EDC9B65F03F94" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a5dd83b0615c7ab65f6e497dc3f1a67">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" xmlns:ns3="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b3083ab368e81f90f854d4b93d60013" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD8216A3BCF59A4CAC1EDC9B65F03F94" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0e72e358fff385e948993b5140718f2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" xmlns:ns3="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2e1edef662b1e8a4a57019bf45cf5f9" ns2:_="" ns3:_="">
     <xsd:import namespace="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
     <xsd:import namespace="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
     <xsd:element name="properties">
@@ -29303,17 +29326,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -29324,39 +29336,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EB1E8C-CF2F-4E26-98A1-B303EE5D0E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01E12F48-6C81-480D-A54C-4B5AB0BB82A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01E12F48-6C81-480D-A54C-4B5AB0BB82A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0477B09-CFA2-4EE3-8BD4-AC2D81DA3050}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
